--- a/data/trans_orig/Q45B-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q45B-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{203F6F62-169A-49BC-9A76-3E09D02B26F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4992B0CF-C586-4DCA-A1E7-A706056DAA0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{97D54F9A-9A10-4D48-9502-D0F0D9E45856}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E13BD160-B507-4D40-B6B3-D31D429FDBFA}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="494">
   <si>
     <t>Población según si han utilizado en los últimos 5 años cabinas o lámparas de rayos ultravioletas en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -79,7 +79,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>3,46%</t>
+    <t>3,57%</t>
   </si>
   <si>
     <t>1,18%</t>
@@ -88,1462 +88,1435 @@
     <t>0,36%</t>
   </si>
   <si>
-    <t>3,08%</t>
+    <t>3,61%</t>
   </si>
   <si>
     <t>1,06%</t>
   </si>
   <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>Si alguna vez</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>No nunca</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>92,63%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>88,2%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
     <t>0,38%</t>
   </si>
   <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>Si alguna vez</t>
-  </si>
-  <si>
-    <t>3,1%</t>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>87,8%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>87,98%</t>
+  </si>
+  <si>
+    <t>83,77%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>91,02%</t>
+  </si>
+  <si>
+    <t>88,63%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si han utilizado en los últimos 5 años cabinas o lámparas de rayos ultravioletas en 2012 (Tasa respuesta: 99,62%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>89,89%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
   </si>
   <si>
     <t>1,25%</t>
   </si>
   <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>No nunca</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>88,5%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>92,06%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>90,93%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>87,81%</t>
+  </si>
+  <si>
+    <t>85,47%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>90,75%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>Población según si han utilizado en los últimos 5 años cabinas o lámparas de rayos ultravioletas en 2015 (Tasa respuesta: 99,62%)</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>90,54%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
   </si>
   <si>
     <t>2,64%</t>
   </si>
   <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>91,2%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>87,78%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
   </si>
   <si>
     <t>3,0%</t>
   </si>
   <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>89,4%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>87,42%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>87,98%</t>
-  </si>
-  <si>
-    <t>83,46%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>91,02%</t>
-  </si>
-  <si>
-    <t>88,8%</t>
-  </si>
-  <si>
-    <t>93,18%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si han utilizado en los últimos 5 años cabinas o lámparas de rayos ultravioletas en 2012 (Tasa respuesta: 99,62%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>89,89%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>90,19%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>90,93%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>87,81%</t>
-  </si>
-  <si>
-    <t>85,3%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
-  </si>
-  <si>
-    <t>90,75%</t>
-  </si>
-  <si>
-    <t>89,03%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>Población según si han utilizado en los últimos 5 años cabinas o lámparas de rayos ultravioletas en 2015 (Tasa respuesta: 99,62%)</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
   </si>
   <si>
     <t>2,35%</t>
   </si>
   <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
     <t>99,06%</t>
   </si>
   <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
+    <t>98,69%</t>
   </si>
   <si>
     <t>96,47%</t>
   </si>
   <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
   </si>
   <si>
     <t>97,73%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
   </si>
   <si>
     <t>98,07%</t>
@@ -1958,7 +1931,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05117CC0-E3A1-4994-B2DB-8A17FB73E98F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F35D13DC-5D50-4FC4-AE62-AB5574F57191}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2115,16 +2088,16 @@
         <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>7</v>
@@ -2133,13 +2106,13 @@
         <v>8469</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="H5" s="7">
         <v>16</v>
@@ -2148,13 +2121,13 @@
         <v>17028</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="M5" s="7">
         <v>23</v>
@@ -2163,19 +2136,19 @@
         <v>25496</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7">
         <v>262</v>
@@ -2184,13 +2157,13 @@
         <v>261956</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="H6" s="7">
         <v>226</v>
@@ -2199,13 +2172,13 @@
         <v>240725</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="M6" s="7">
         <v>488</v>
@@ -2214,13 +2187,13 @@
         <v>502682</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2235,13 +2208,13 @@
         <v>273010</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H7" s="7">
         <v>245</v>
@@ -2250,13 +2223,13 @@
         <v>260838</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M7" s="7">
         <v>516</v>
@@ -2265,18 +2238,18 @@
         <v>533848</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -2288,7 +2261,7 @@
         <v>1865</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>12</v>
@@ -2330,7 +2303,7 @@
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="7">
         <v>7</v>
@@ -2339,13 +2312,13 @@
         <v>6570</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H9" s="7">
         <v>31</v>
@@ -2354,13 +2327,13 @@
         <v>30679</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M9" s="7">
         <v>38</v>
@@ -2369,19 +2342,19 @@
         <v>37248</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" s="7">
         <v>456</v>
@@ -2390,13 +2363,13 @@
         <v>484640</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H10" s="7">
         <v>466</v>
@@ -2405,13 +2378,13 @@
         <v>471432</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M10" s="7">
         <v>922</v>
@@ -2420,13 +2393,13 @@
         <v>956072</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2441,13 +2414,13 @@
         <v>493075</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H11" s="7">
         <v>499</v>
@@ -2456,13 +2429,13 @@
         <v>503949</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M11" s="7">
         <v>964</v>
@@ -2471,18 +2444,18 @@
         <v>997024</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -2497,10 +2470,10 @@
         <v>12</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
@@ -2509,13 +2482,13 @@
         <v>1000</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M12" s="7">
         <v>1</v>
@@ -2524,19 +2497,19 @@
         <v>1000</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" s="7">
         <v>2</v>
@@ -2545,13 +2518,13 @@
         <v>1882</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H13" s="7">
         <v>27</v>
@@ -2560,13 +2533,13 @@
         <v>26846</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M13" s="7">
         <v>29</v>
@@ -2575,19 +2548,19 @@
         <v>28728</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="7">
         <v>308</v>
@@ -2596,13 +2569,13 @@
         <v>316964</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H14" s="7">
         <v>307</v>
@@ -2611,13 +2584,13 @@
         <v>307566</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M14" s="7">
         <v>615</v>
@@ -2626,13 +2599,13 @@
         <v>624530</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2647,13 +2620,13 @@
         <v>318846</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H15" s="7">
         <v>335</v>
@@ -2662,13 +2635,13 @@
         <v>335412</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M15" s="7">
         <v>645</v>
@@ -2677,18 +2650,18 @@
         <v>654258</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2700,13 +2673,13 @@
         <v>1526</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -2715,13 +2688,13 @@
         <v>940</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>21</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -2736,13 +2709,13 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
         <v>5</v>
@@ -2751,7 +2724,7 @@
         <v>5181</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>95</v>
@@ -2793,7 +2766,7 @@
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="7">
         <v>356</v>
@@ -2808,7 +2781,7 @@
         <v>104</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>57</v>
+        <v>105</v>
       </c>
       <c r="H18" s="7">
         <v>356</v>
@@ -2817,13 +2790,13 @@
         <v>343584</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M18" s="7">
         <v>712</v>
@@ -2832,13 +2805,13 @@
         <v>695549</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2853,13 +2826,13 @@
         <v>358671</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H19" s="7">
         <v>384</v>
@@ -2868,13 +2841,13 @@
         <v>371456</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M19" s="7">
         <v>746</v>
@@ -2883,18 +2856,18 @@
         <v>730127</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2909,10 +2882,10 @@
         <v>12</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2924,10 +2897,10 @@
         <v>12</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -2939,16 +2912,16 @@
         <v>12</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C21" s="7">
         <v>5</v>
@@ -2957,13 +2930,13 @@
         <v>5069</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H21" s="7">
         <v>14</v>
@@ -2972,13 +2945,13 @@
         <v>15760</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M21" s="7">
         <v>19</v>
@@ -2987,19 +2960,19 @@
         <v>20829</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C22" s="7">
         <v>201</v>
@@ -3008,13 +2981,13 @@
         <v>198239</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H22" s="7">
         <v>184</v>
@@ -3023,13 +2996,13 @@
         <v>191908</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M22" s="7">
         <v>385</v>
@@ -3038,13 +3011,13 @@
         <v>390147</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3059,13 +3032,13 @@
         <v>203308</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H23" s="7">
         <v>198</v>
@@ -3074,13 +3047,13 @@
         <v>207668</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M23" s="7">
         <v>404</v>
@@ -3089,18 +3062,18 @@
         <v>410976</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3115,10 +3088,10 @@
         <v>12</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H24" s="7">
         <v>1</v>
@@ -3133,7 +3106,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M24" s="7">
         <v>1</v>
@@ -3142,19 +3115,19 @@
         <v>1028</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C25" s="7">
         <v>1</v>
@@ -3163,13 +3136,13 @@
         <v>879</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H25" s="7">
         <v>31</v>
@@ -3178,13 +3151,13 @@
         <v>32397</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M25" s="7">
         <v>32</v>
@@ -3193,19 +3166,19 @@
         <v>33276</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C26" s="7">
         <v>265</v>
@@ -3214,13 +3187,13 @@
         <v>269932</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H26" s="7">
         <v>238</v>
@@ -3229,13 +3202,13 @@
         <v>244719</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M26" s="7">
         <v>503</v>
@@ -3244,13 +3217,13 @@
         <v>514651</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3265,13 +3238,13 @@
         <v>270811</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H27" s="7">
         <v>270</v>
@@ -3280,13 +3253,13 @@
         <v>278144</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M27" s="7">
         <v>536</v>
@@ -3295,18 +3268,18 @@
         <v>548955</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3318,13 +3291,13 @@
         <v>950</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>154</v>
+        <v>71</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -3336,7 +3309,7 @@
         <v>12</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>155</v>
@@ -3354,13 +3327,13 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>157</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C29" s="7">
         <v>3</v>
@@ -3369,13 +3342,13 @@
         <v>3721</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="H29" s="7">
         <v>57</v>
@@ -3384,13 +3357,13 @@
         <v>57342</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="M29" s="7">
         <v>60</v>
@@ -3399,19 +3372,19 @@
         <v>61063</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C30" s="7">
         <v>594</v>
@@ -3420,13 +3393,13 @@
         <v>610356</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="H30" s="7">
         <v>564</v>
@@ -3435,13 +3408,13 @@
         <v>580877</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="M30" s="7">
         <v>1158</v>
@@ -3450,13 +3423,13 @@
         <v>1191233</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3471,13 +3444,13 @@
         <v>615027</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H31" s="7">
         <v>621</v>
@@ -3486,13 +3459,13 @@
         <v>638219</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M31" s="7">
         <v>1219</v>
@@ -3501,18 +3474,18 @@
         <v>1253246</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -3524,13 +3497,13 @@
         <v>3466</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F32" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="H32" s="7">
         <v>5</v>
@@ -3539,13 +3512,13 @@
         <v>4592</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>179</v>
+        <v>47</v>
       </c>
       <c r="M32" s="7">
         <v>8</v>
@@ -3554,19 +3527,19 @@
         <v>8057</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>95</v>
+        <v>178</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>180</v>
+        <v>92</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C33" s="7">
         <v>24</v>
@@ -3575,13 +3548,13 @@
         <v>23533</v>
       </c>
       <c r="E33" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="G33" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="H33" s="7">
         <v>42</v>
@@ -3590,13 +3563,13 @@
         <v>44466</v>
       </c>
       <c r="J33" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="L33" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="M33" s="7">
         <v>66</v>
@@ -3605,19 +3578,19 @@
         <v>67999</v>
       </c>
       <c r="O33" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q33" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C34" s="7">
         <v>709</v>
@@ -3626,13 +3599,13 @@
         <v>716796</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="H34" s="7">
         <v>698</v>
@@ -3641,13 +3614,13 @@
         <v>734454</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="M34" s="7">
         <v>1407</v>
@@ -3656,13 +3629,13 @@
         <v>1451250</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3677,13 +3650,13 @@
         <v>743795</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H35" s="7">
         <v>745</v>
@@ -3692,13 +3665,13 @@
         <v>783511</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M35" s="7">
         <v>1481</v>
@@ -3707,13 +3680,13 @@
         <v>1527306</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3730,13 +3703,13 @@
         <v>10392</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H36" s="7">
         <v>13</v>
@@ -3748,10 +3721,10 @@
         <v>44</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>200</v>
+        <v>136</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>201</v>
+        <v>72</v>
       </c>
       <c r="M36" s="7">
         <v>22</v>
@@ -3763,16 +3736,16 @@
         <v>93</v>
       </c>
       <c r="P36" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C37" s="7">
         <v>54</v>
@@ -3781,13 +3754,13 @@
         <v>55303</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>202</v>
+        <v>159</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>92</v>
+        <v>199</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="H37" s="7">
         <v>245</v>
@@ -3796,13 +3769,13 @@
         <v>251449</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>205</v>
+        <v>23</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="M37" s="7">
         <v>299</v>
@@ -3811,19 +3784,19 @@
         <v>306752</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C38" s="7">
         <v>3151</v>
@@ -3832,13 +3805,13 @@
         <v>3210849</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="H38" s="7">
         <v>3039</v>
@@ -3847,28 +3820,28 @@
         <v>3115266</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="M38" s="7">
         <v>6190</v>
       </c>
       <c r="N38" s="7">
-        <v>6326114</v>
+        <v>6326115</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3883,13 +3856,13 @@
         <v>3276544</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H39" s="7">
         <v>3297</v>
@@ -3898,33 +3871,33 @@
         <v>3379198</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M39" s="7">
         <v>6511</v>
       </c>
       <c r="N39" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -3948,7 +3921,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42B60539-19CD-4C98-A745-FC6FE5FFEFB9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{019FCBFB-44F5-4A48-A86A-F91F54304B6F}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3965,7 +3938,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4070,129 +4043,129 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4205,44 +4178,44 @@
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
       </c>
       <c r="N7" s="7"/>
       <c r="O7" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -4257,10 +4230,10 @@
         <v>12</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="H8" s="7">
         <v>4</v>
@@ -4269,13 +4242,13 @@
         <v>4072</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>154</v>
+        <v>218</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="M8" s="7">
         <v>4</v>
@@ -4284,19 +4257,19 @@
         <v>4072</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>225</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="7">
         <v>7</v>
@@ -4305,13 +4278,13 @@
         <v>6661</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>138</v>
+        <v>222</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>47</v>
+        <v>223</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H9" s="7">
         <v>12</v>
@@ -4320,13 +4293,13 @@
         <v>12969</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="M9" s="7">
         <v>19</v>
@@ -4335,19 +4308,19 @@
         <v>19630</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" s="7">
         <v>465</v>
@@ -4356,7 +4329,7 @@
         <v>498866</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>146</v>
+        <v>231</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>232</v>
@@ -4368,16 +4341,16 @@
         <v>463</v>
       </c>
       <c r="I10" s="7">
-        <v>505696</v>
+        <v>505695</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>56</v>
+        <v>234</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M10" s="7">
         <v>928</v>
@@ -4386,13 +4359,13 @@
         <v>1004562</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>56</v>
+        <v>111</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4407,28 +4380,28 @@
         <v>505527</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H11" s="7">
         <v>479</v>
       </c>
       <c r="I11" s="7">
-        <v>522737</v>
+        <v>522736</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M11" s="7">
         <v>951</v>
@@ -4437,18 +4410,18 @@
         <v>1028264</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -4460,13 +4433,13 @@
         <v>952</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H12" s="7">
         <v>3</v>
@@ -4475,13 +4448,13 @@
         <v>3014</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="M12" s="7">
         <v>4</v>
@@ -4490,19 +4463,19 @@
         <v>3967</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>68</v>
+        <v>244</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" s="7">
         <v>2</v>
@@ -4511,13 +4484,13 @@
         <v>1937</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="H13" s="7">
         <v>21</v>
@@ -4526,13 +4499,13 @@
         <v>20802</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="M13" s="7">
         <v>23</v>
@@ -4541,19 +4514,19 @@
         <v>22739</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="7">
         <v>315</v>
@@ -4562,13 +4535,13 @@
         <v>320222</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="H14" s="7">
         <v>292</v>
@@ -4577,13 +4550,13 @@
         <v>316244</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="M14" s="7">
         <v>607</v>
@@ -4592,13 +4565,13 @@
         <v>636466</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>39</v>
+        <v>258</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4613,13 +4586,13 @@
         <v>323111</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H15" s="7">
         <v>316</v>
@@ -4628,13 +4601,13 @@
         <v>340060</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M15" s="7">
         <v>634</v>
@@ -4643,18 +4616,18 @@
         <v>663171</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4666,13 +4639,13 @@
         <v>877</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -4681,13 +4654,13 @@
         <v>7092</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>260</v>
+        <v>217</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -4696,19 +4669,19 @@
         <v>7969</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>180</v>
+        <v>264</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
         <v>4</v>
@@ -4717,13 +4690,13 @@
         <v>3364</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="H17" s="7">
         <v>29</v>
@@ -4732,13 +4705,13 @@
         <v>29513</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>266</v>
+        <v>50</v>
       </c>
       <c r="M17" s="7">
         <v>33</v>
@@ -4747,19 +4720,19 @@
         <v>32878</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="7">
         <v>619</v>
@@ -4768,13 +4741,13 @@
         <v>662453</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="H18" s="7">
         <v>591</v>
@@ -4783,13 +4756,13 @@
         <v>638490</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="M18" s="7">
         <v>1210</v>
@@ -4798,13 +4771,13 @@
         <v>1300943</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>276</v>
+        <v>88</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4819,13 +4792,13 @@
         <v>666694</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H19" s="7">
         <v>626</v>
@@ -4834,13 +4807,13 @@
         <v>675095</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M19" s="7">
         <v>1250</v>
@@ -4849,18 +4822,18 @@
         <v>1341789</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4872,13 +4845,13 @@
         <v>1134</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4890,10 +4863,10 @@
         <v>12</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>281</v>
+        <v>46</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -4908,13 +4881,13 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>283</v>
+        <v>244</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C21" s="7">
         <v>1</v>
@@ -4923,13 +4896,13 @@
         <v>1146</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H21" s="7">
         <v>6</v>
@@ -4938,10 +4911,10 @@
         <v>5745</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>281</v>
       </c>
       <c r="L21" s="7" t="s">
         <v>286</v>
@@ -4956,16 +4929,16 @@
         <v>287</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>258</v>
+        <v>288</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C22" s="7">
         <v>193</v>
@@ -4974,13 +4947,13 @@
         <v>209192</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H22" s="7">
         <v>205</v>
@@ -4989,7 +4962,7 @@
         <v>212902</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>291</v>
+        <v>207</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>292</v>
@@ -5010,7 +4983,7 @@
         <v>294</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>125</v>
+        <v>295</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5025,13 +4998,13 @@
         <v>211472</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H23" s="7">
         <v>211</v>
@@ -5040,13 +5013,13 @@
         <v>218647</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M23" s="7">
         <v>406</v>
@@ -5055,18 +5028,18 @@
         <v>430120</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -5078,13 +5051,13 @@
         <v>911</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>202</v>
+        <v>297</v>
       </c>
       <c r="H24" s="7">
         <v>6</v>
@@ -5093,13 +5066,13 @@
         <v>5857</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>297</v>
+        <v>134</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>298</v>
+        <v>51</v>
       </c>
       <c r="M24" s="7">
         <v>7</v>
@@ -5108,19 +5081,19 @@
         <v>6767</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>299</v>
+        <v>42</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>300</v>
+        <v>95</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>19</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C25" s="7">
         <v>5</v>
@@ -5129,13 +5102,13 @@
         <v>4894</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>301</v>
+        <v>270</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>133</v>
+        <v>299</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="H25" s="7">
         <v>11</v>
@@ -5144,13 +5117,13 @@
         <v>11523</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>304</v>
+        <v>91</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="M25" s="7">
         <v>16</v>
@@ -5159,19 +5132,19 @@
         <v>16418</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C26" s="7">
         <v>254</v>
@@ -5180,13 +5153,13 @@
         <v>267101</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="H26" s="7">
         <v>250</v>
@@ -5195,13 +5168,13 @@
         <v>260862</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>313</v>
+        <v>173</v>
       </c>
       <c r="M26" s="7">
         <v>504</v>
@@ -5210,13 +5183,13 @@
         <v>527963</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5231,13 +5204,13 @@
         <v>272906</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H27" s="7">
         <v>267</v>
@@ -5246,13 +5219,13 @@
         <v>278242</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M27" s="7">
         <v>527</v>
@@ -5261,18 +5234,18 @@
         <v>551148</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5284,13 +5257,13 @@
         <v>986</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>116</v>
+        <v>313</v>
       </c>
       <c r="H28" s="7">
         <v>4</v>
@@ -5299,13 +5272,13 @@
         <v>3900</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>69</v>
+        <v>314</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="M28" s="7">
         <v>5</v>
@@ -5317,16 +5290,16 @@
         <v>15</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>319</v>
+        <v>117</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C29" s="7">
         <v>11</v>
@@ -5335,13 +5308,13 @@
         <v>14537</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>321</v>
+        <v>17</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>322</v>
+        <v>53</v>
       </c>
       <c r="H29" s="7">
         <v>55</v>
@@ -5350,13 +5323,13 @@
         <v>58820</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="M29" s="7">
         <v>66</v>
@@ -5365,19 +5338,19 @@
         <v>73357</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C30" s="7">
         <v>600</v>
@@ -5386,13 +5359,13 @@
         <v>640451</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>31</v>
+        <v>323</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="H30" s="7">
         <v>575</v>
@@ -5401,13 +5374,13 @@
         <v>628772</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="M30" s="7">
         <v>1175</v>
@@ -5416,13 +5389,13 @@
         <v>1269223</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>336</v>
+        <v>130</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5437,13 +5410,13 @@
         <v>655974</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H31" s="7">
         <v>634</v>
@@ -5452,13 +5425,13 @@
         <v>691492</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M31" s="7">
         <v>1246</v>
@@ -5467,18 +5440,18 @@
         <v>1347466</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -5490,13 +5463,13 @@
         <v>2356</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>337</v>
+        <v>179</v>
       </c>
       <c r="H32" s="7">
         <v>8</v>
@@ -5505,13 +5478,13 @@
         <v>9032</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>321</v>
+        <v>229</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="M32" s="7">
         <v>10</v>
@@ -5520,19 +5493,19 @@
         <v>11388</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>70</v>
+        <v>262</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>18</v>
+        <v>220</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>179</v>
+        <v>332</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C33" s="7">
         <v>43</v>
@@ -5541,13 +5514,13 @@
         <v>45545</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>117</v>
+        <v>333</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>340</v>
+        <v>77</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="H33" s="7">
         <v>84</v>
@@ -5556,13 +5529,13 @@
         <v>90758</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="M33" s="7">
         <v>127</v>
@@ -5571,19 +5544,19 @@
         <v>136303</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C34" s="7">
         <v>671</v>
@@ -5592,13 +5565,13 @@
         <v>730066</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>60</v>
+        <v>343</v>
       </c>
       <c r="H34" s="7">
         <v>660</v>
@@ -5607,13 +5580,13 @@
         <v>718736</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="M34" s="7">
         <v>1331</v>
@@ -5622,13 +5595,13 @@
         <v>1448801</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5643,13 +5616,13 @@
         <v>777967</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H35" s="7">
         <v>752</v>
@@ -5658,13 +5631,13 @@
         <v>818526</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M35" s="7">
         <v>1468</v>
@@ -5673,13 +5646,13 @@
         <v>1596492</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -5696,13 +5669,13 @@
         <v>7216</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>356</v>
+        <v>198</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>224</v>
+        <v>45</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="H36" s="7">
         <v>31</v>
@@ -5711,13 +5684,13 @@
         <v>32967</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>359</v>
+        <v>266</v>
       </c>
       <c r="M36" s="7">
         <v>38</v>
@@ -5726,19 +5699,19 @@
         <v>40183</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>221</v>
+        <v>350</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C37" s="7">
         <v>73</v>
@@ -5747,13 +5720,13 @@
         <v>78084</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>72</v>
+        <v>219</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="H37" s="7">
         <v>218</v>
@@ -5762,13 +5735,13 @@
         <v>230131</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="M37" s="7">
         <v>291</v>
@@ -5777,19 +5750,19 @@
         <v>308216</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>369</v>
+        <v>251</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C38" s="7">
         <v>3117</v>
@@ -5798,13 +5771,13 @@
         <v>3328350</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="H38" s="7">
         <v>3036</v>
@@ -5813,13 +5786,13 @@
         <v>3281700</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="M38" s="7">
         <v>6153</v>
@@ -5828,13 +5801,13 @@
         <v>6610051</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -5849,13 +5822,13 @@
         <v>3413651</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H39" s="7">
         <v>3285</v>
@@ -5864,13 +5837,13 @@
         <v>3544798</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M39" s="7">
         <v>6482</v>
@@ -5879,18 +5852,18 @@
         <v>6958450</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -5914,7 +5887,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FFD7AC8-B883-426C-AE76-00C63F509E53}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5C0CACD-2BDF-4E07-B92F-766F9534C607}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5931,7 +5904,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6041,10 +6014,10 @@
         <v>12</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -6053,13 +6026,13 @@
         <v>922</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -6068,19 +6041,19 @@
         <v>922</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>319</v>
+        <v>353</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>5</v>
@@ -6089,13 +6062,13 @@
         <v>4717</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>384</v>
+        <v>271</v>
       </c>
       <c r="H5" s="7">
         <v>7</v>
@@ -6104,13 +6077,13 @@
         <v>7942</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="M5" s="7">
         <v>12</v>
@@ -6119,19 +6092,19 @@
         <v>12659</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>302</v>
+        <v>380</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7">
         <v>258</v>
@@ -6140,13 +6113,13 @@
         <v>284573</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>392</v>
+        <v>272</v>
       </c>
       <c r="H6" s="7">
         <v>269</v>
@@ -6155,13 +6128,13 @@
         <v>279839</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="M6" s="7">
         <v>527</v>
@@ -6170,13 +6143,13 @@
         <v>564412</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>398</v>
+        <v>231</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6191,13 +6164,13 @@
         <v>289290</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H7" s="7">
         <v>277</v>
@@ -6206,13 +6179,13 @@
         <v>288703</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M7" s="7">
         <v>540</v>
@@ -6221,18 +6194,18 @@
         <v>577993</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -6247,10 +6220,10 @@
         <v>12</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -6262,10 +6235,10 @@
         <v>12</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -6277,16 +6250,16 @@
         <v>12</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>200</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="7">
         <v>0</v>
@@ -6298,10 +6271,10 @@
         <v>12</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="H9" s="7">
         <v>3</v>
@@ -6310,13 +6283,13 @@
         <v>3138</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="M9" s="7">
         <v>3</v>
@@ -6328,16 +6301,16 @@
         <v>155</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>399</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" s="7">
         <v>473</v>
@@ -6346,13 +6319,13 @@
         <v>500437</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H10" s="7">
         <v>481</v>
@@ -6361,28 +6334,28 @@
         <v>519946</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>402</v>
+        <v>167</v>
       </c>
       <c r="M10" s="7">
         <v>954</v>
       </c>
       <c r="N10" s="7">
-        <v>1020383</v>
+        <v>1020384</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>57</v>
+        <v>393</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6397,13 +6370,13 @@
         <v>500437</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H11" s="7">
         <v>484</v>
@@ -6412,33 +6385,33 @@
         <v>523084</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M11" s="7">
         <v>957</v>
       </c>
       <c r="N11" s="7">
-        <v>1023521</v>
+        <v>1023522</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -6453,10 +6426,10 @@
         <v>12</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>405</v>
+        <v>223</v>
       </c>
       <c r="H12" s="7">
         <v>2</v>
@@ -6465,13 +6438,13 @@
         <v>1707</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>407</v>
+        <v>219</v>
       </c>
       <c r="M12" s="7">
         <v>2</v>
@@ -6486,13 +6459,13 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>408</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" s="7">
         <v>1</v>
@@ -6507,7 +6480,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>409</v>
+        <v>396</v>
       </c>
       <c r="H13" s="7">
         <v>21</v>
@@ -6516,13 +6489,13 @@
         <v>19587</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="M13" s="7">
         <v>22</v>
@@ -6531,19 +6504,19 @@
         <v>20584</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>415</v>
+        <v>203</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="7">
         <v>333</v>
@@ -6552,13 +6525,13 @@
         <v>316605</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>416</v>
+        <v>402</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H14" s="7">
         <v>305</v>
@@ -6567,13 +6540,13 @@
         <v>311174</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>417</v>
+        <v>403</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>418</v>
+        <v>404</v>
       </c>
       <c r="M14" s="7">
         <v>638</v>
@@ -6582,13 +6555,13 @@
         <v>627779</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>419</v>
+        <v>405</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>421</v>
+        <v>407</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6603,13 +6576,13 @@
         <v>317601</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H15" s="7">
         <v>328</v>
@@ -6618,13 +6591,13 @@
         <v>332468</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M15" s="7">
         <v>662</v>
@@ -6633,18 +6606,18 @@
         <v>650069</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6662,7 +6635,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>422</v>
+        <v>222</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -6671,13 +6644,13 @@
         <v>1913</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>160</v>
+        <v>408</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
@@ -6686,19 +6659,19 @@
         <v>2872</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>423</v>
+        <v>409</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>424</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
         <v>1</v>
@@ -6707,13 +6680,13 @@
         <v>1009</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>425</v>
+        <v>264</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>426</v>
+        <v>388</v>
       </c>
       <c r="H17" s="7">
         <v>8</v>
@@ -6722,13 +6695,13 @@
         <v>7574</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>134</v>
+        <v>410</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>427</v>
+        <v>24</v>
       </c>
       <c r="M17" s="7">
         <v>9</v>
@@ -6737,19 +6710,19 @@
         <v>8583</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>389</v>
+        <v>411</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>406</v>
+        <v>95</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>203</v>
+        <v>412</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="7">
         <v>350</v>
@@ -6758,13 +6731,13 @@
         <v>366203</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>429</v>
+        <v>414</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H18" s="7">
         <v>347</v>
@@ -6773,13 +6746,13 @@
         <v>376763</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>431</v>
+        <v>369</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>432</v>
+        <v>416</v>
       </c>
       <c r="M18" s="7">
         <v>697</v>
@@ -6788,13 +6761,13 @@
         <v>742966</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>212</v>
+        <v>273</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>433</v>
+        <v>417</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>434</v>
+        <v>418</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6809,13 +6782,13 @@
         <v>368171</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H19" s="7">
         <v>357</v>
@@ -6824,13 +6797,13 @@
         <v>386250</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M19" s="7">
         <v>709</v>
@@ -6839,18 +6812,18 @@
         <v>754420</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -6865,10 +6838,10 @@
         <v>12</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -6880,10 +6853,10 @@
         <v>12</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>436</v>
+        <v>420</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -6895,16 +6868,16 @@
         <v>12</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>260</v>
+        <v>421</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C21" s="7">
         <v>3</v>
@@ -6913,13 +6886,13 @@
         <v>2817</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>157</v>
+        <v>350</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>50</v>
+        <v>422</v>
       </c>
       <c r="H21" s="7">
         <v>3</v>
@@ -6928,13 +6901,13 @@
         <v>2528</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>230</v>
+        <v>423</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>28</v>
+        <v>424</v>
       </c>
       <c r="M21" s="7">
         <v>6</v>
@@ -6943,19 +6916,19 @@
         <v>5346</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>22</v>
+        <v>285</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>157</v>
+        <v>350</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C22" s="7">
         <v>209</v>
@@ -6964,13 +6937,13 @@
         <v>208404</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>438</v>
+        <v>426</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>439</v>
+        <v>189</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>440</v>
+        <v>427</v>
       </c>
       <c r="H22" s="7">
         <v>219</v>
@@ -6979,13 +6952,13 @@
         <v>215232</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>441</v>
+        <v>428</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>81</v>
+        <v>429</v>
       </c>
       <c r="M22" s="7">
         <v>428</v>
@@ -6994,13 +6967,13 @@
         <v>423635</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>442</v>
+        <v>293</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>443</v>
+        <v>430</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>440</v>
+        <v>427</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7015,13 +6988,13 @@
         <v>211221</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H23" s="7">
         <v>222</v>
@@ -7030,13 +7003,13 @@
         <v>217760</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M23" s="7">
         <v>434</v>
@@ -7045,18 +7018,18 @@
         <v>428981</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -7071,10 +7044,10 @@
         <v>12</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>297</v>
+        <v>431</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -7086,10 +7059,10 @@
         <v>12</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -7101,7 +7074,7 @@
         <v>12</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>44</v>
@@ -7110,7 +7083,7 @@
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C25" s="7">
         <v>3</v>
@@ -7119,13 +7092,13 @@
         <v>2902</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>321</v>
+        <v>229</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="H25" s="7">
         <v>3</v>
@@ -7134,13 +7107,13 @@
         <v>2717</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>225</v>
+        <v>433</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>295</v>
+        <v>138</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>445</v>
+        <v>355</v>
       </c>
       <c r="M25" s="7">
         <v>6</v>
@@ -7149,19 +7122,19 @@
         <v>5620</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>262</v>
+        <v>434</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>90</v>
+        <v>298</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C26" s="7">
         <v>256</v>
@@ -7170,13 +7143,13 @@
         <v>260221</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>448</v>
+        <v>437</v>
       </c>
       <c r="H26" s="7">
         <v>259</v>
@@ -7185,13 +7158,13 @@
         <v>269386</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>451</v>
+        <v>146</v>
       </c>
       <c r="M26" s="7">
         <v>515</v>
@@ -7200,13 +7173,13 @@
         <v>529606</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>309</v>
+        <v>441</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7221,13 +7194,13 @@
         <v>263123</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H27" s="7">
         <v>262</v>
@@ -7236,13 +7209,13 @@
         <v>272103</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M27" s="7">
         <v>521</v>
@@ -7251,18 +7224,18 @@
         <v>535226</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -7277,10 +7250,10 @@
         <v>12</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H28" s="7">
         <v>3</v>
@@ -7289,13 +7262,13 @@
         <v>2907</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>157</v>
+        <v>350</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>257</v>
+        <v>314</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>454</v>
+        <v>411</v>
       </c>
       <c r="M28" s="7">
         <v>3</v>
@@ -7304,19 +7277,19 @@
         <v>2907</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>178</v>
+        <v>443</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C29" s="7">
         <v>6</v>
@@ -7325,13 +7298,13 @@
         <v>6477</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>93</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>203</v>
+        <v>446</v>
       </c>
       <c r="H29" s="7">
         <v>16</v>
@@ -7340,13 +7313,13 @@
         <v>16737</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="M29" s="7">
         <v>22</v>
@@ -7355,19 +7328,19 @@
         <v>23214</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>461</v>
+        <v>425</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C30" s="7">
         <v>570</v>
@@ -7376,13 +7349,13 @@
         <v>645779</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>278</v>
+        <v>452</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="H30" s="7">
         <v>623</v>
@@ -7391,13 +7364,13 @@
         <v>666754</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="M30" s="7">
         <v>1193</v>
@@ -7406,13 +7379,13 @@
         <v>1312533</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>468</v>
+        <v>454</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7427,13 +7400,13 @@
         <v>652256</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H31" s="7">
         <v>642</v>
@@ -7442,13 +7415,13 @@
         <v>686398</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M31" s="7">
         <v>1218</v>
@@ -7457,18 +7430,18 @@
         <v>1338654</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -7480,13 +7453,13 @@
         <v>1059</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>470</v>
+        <v>459</v>
       </c>
       <c r="H32" s="7">
         <v>11</v>
@@ -7495,13 +7468,13 @@
         <v>11241</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>471</v>
+        <v>460</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>133</v>
+        <v>431</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>472</v>
+        <v>461</v>
       </c>
       <c r="M32" s="7">
         <v>12</v>
@@ -7510,19 +7483,19 @@
         <v>12300</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>473</v>
+        <v>71</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>260</v>
+        <v>90</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>42</v>
+        <v>176</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C33" s="7">
         <v>11</v>
@@ -7531,13 +7504,13 @@
         <v>10960</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>475</v>
+        <v>447</v>
       </c>
       <c r="H33" s="7">
         <v>45</v>
@@ -7546,13 +7519,13 @@
         <v>45843</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="M33" s="7">
         <v>56</v>
@@ -7561,19 +7534,19 @@
         <v>56803</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>479</v>
+        <v>271</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>480</v>
+        <v>467</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C34" s="7">
         <v>737</v>
@@ -7582,13 +7555,13 @@
         <v>765643</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>482</v>
+        <v>469</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>483</v>
+        <v>470</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>484</v>
+        <v>127</v>
       </c>
       <c r="H34" s="7">
         <v>698</v>
@@ -7597,13 +7570,13 @@
         <v>768003</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>485</v>
+        <v>471</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>486</v>
+        <v>472</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>487</v>
+        <v>292</v>
       </c>
       <c r="M34" s="7">
         <v>1435</v>
@@ -7612,13 +7585,13 @@
         <v>1533647</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>152</v>
+        <v>473</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>216</v>
+        <v>275</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>488</v>
+        <v>474</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7633,13 +7606,13 @@
         <v>777662</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H35" s="7">
         <v>754</v>
@@ -7648,13 +7621,13 @@
         <v>825087</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M35" s="7">
         <v>1503</v>
@@ -7663,13 +7636,13 @@
         <v>1602750</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -7686,13 +7659,13 @@
         <v>2018</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>489</v>
+        <v>475</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H36" s="7">
         <v>19</v>
@@ -7701,13 +7674,13 @@
         <v>18690</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>95</v>
+        <v>178</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>490</v>
+        <v>476</v>
       </c>
       <c r="M36" s="7">
         <v>21</v>
@@ -7716,19 +7689,19 @@
         <v>20708</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>260</v>
+        <v>477</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C37" s="7">
         <v>30</v>
@@ -7737,13 +7710,13 @@
         <v>29878</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>116</v>
+        <v>478</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="H37" s="7">
         <v>106</v>
@@ -7752,13 +7725,13 @@
         <v>106067</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>96</v>
+        <v>480</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>457</v>
+        <v>481</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="M37" s="7">
         <v>136</v>
@@ -7767,19 +7740,19 @@
         <v>135945</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>475</v>
+        <v>485</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C38" s="7">
         <v>3186</v>
@@ -7788,13 +7761,13 @@
         <v>3347865</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>497</v>
+        <v>272</v>
       </c>
       <c r="H38" s="7">
         <v>3201</v>
@@ -7803,13 +7776,13 @@
         <v>3407095</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="M38" s="7">
         <v>6387</v>
@@ -7818,13 +7791,13 @@
         <v>6754960</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>291</v>
+        <v>492</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7839,13 +7812,13 @@
         <v>3379761</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H39" s="7">
         <v>3326</v>
@@ -7854,13 +7827,13 @@
         <v>3531852</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M39" s="7">
         <v>6544</v>
@@ -7869,18 +7842,18 @@
         <v>6911613</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Q45B-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q45B-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4992B0CF-C586-4DCA-A1E7-A706056DAA0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{724EA864-143E-4D52-BE57-2D3A0D58865D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E13BD160-B507-4D40-B6B3-D31D429FDBFA}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{17E7F467-3FAD-4BCD-84E5-2EE25B584E40}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="507">
   <si>
     <t>Población según si han utilizado en los últimos 5 años cabinas o lámparas de rayos ultravioletas en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -79,1447 +79,1486 @@
     <t>0,0%</t>
   </si>
   <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>Si alguna vez</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>No nunca</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>88,2%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>88,26%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>89,38%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>88,15%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>87,98%</t>
+  </si>
+  <si>
+    <t>83,39%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>91,02%</t>
+  </si>
+  <si>
+    <t>88,42%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si han utilizado en los últimos 5 años cabinas o lámparas de rayos ultravioletas en 2012 (Tasa respuesta: 99,62%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>89,8%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>90,93%</t>
+  </si>
+  <si>
+    <t>88,69%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>87,81%</t>
+  </si>
+  <si>
+    <t>85,44%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>90,75%</t>
+  </si>
+  <si>
+    <t>89,08%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>91,69%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>Población según si han utilizado en los últimos 5 años cabinas o lámparas de rayos ultravioletas en 2016 (Tasa respuesta: 99,62%)</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
     <t>3,57%</t>
   </si>
   <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>Si alguna vez</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>No nunca</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>88,2%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>87,8%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>87,98%</t>
-  </si>
-  <si>
-    <t>83,77%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>91,02%</t>
-  </si>
-  <si>
-    <t>88,63%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si han utilizado en los últimos 5 años cabinas o lámparas de rayos ultravioletas en 2012 (Tasa respuesta: 99,62%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>89,89%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
   </si>
   <si>
     <t>97,34%</t>
   </si>
   <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
   </si>
   <si>
     <t>3,54%</t>
   </si>
   <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>90,46%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>90,93%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>87,81%</t>
-  </si>
-  <si>
-    <t>85,47%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>90,75%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
-  </si>
-  <si>
-    <t>92,14%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>Población según si han utilizado en los últimos 5 años cabinas o lámparas de rayos ultravioletas en 2015 (Tasa respuesta: 99,62%)</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>91,07%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
   </si>
   <si>
     <t>97,36%</t>
   </si>
   <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
+    <t>98,03%</t>
   </si>
 </sst>
 </file>
@@ -1931,7 +1970,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F35D13DC-5D50-4FC4-AE62-AB5574F57191}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A116FC1-F680-4197-BC04-CBC3E4ADF59B}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2088,16 +2127,16 @@
         <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>7</v>
@@ -2106,13 +2145,13 @@
         <v>8469</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
         <v>16</v>
@@ -2121,13 +2160,13 @@
         <v>17028</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
         <v>23</v>
@@ -2136,19 +2175,19 @@
         <v>25496</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>262</v>
@@ -2157,13 +2196,13 @@
         <v>261956</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H6" s="7">
         <v>226</v>
@@ -2172,13 +2211,13 @@
         <v>240725</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M6" s="7">
         <v>488</v>
@@ -2187,13 +2226,13 @@
         <v>502682</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2208,13 +2247,13 @@
         <v>273010</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H7" s="7">
         <v>245</v>
@@ -2223,13 +2262,13 @@
         <v>260838</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M7" s="7">
         <v>516</v>
@@ -2238,18 +2277,18 @@
         <v>533848</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -2261,13 +2300,13 @@
         <v>1865</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -2276,13 +2315,13 @@
         <v>1838</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M8" s="7">
         <v>4</v>
@@ -2291,19 +2330,19 @@
         <v>3703</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9" s="7">
         <v>7</v>
@@ -2312,13 +2351,13 @@
         <v>6570</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H9" s="7">
         <v>31</v>
@@ -2327,13 +2366,13 @@
         <v>30679</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M9" s="7">
         <v>38</v>
@@ -2342,19 +2381,19 @@
         <v>37248</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C10" s="7">
         <v>456</v>
@@ -2363,13 +2402,13 @@
         <v>484640</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H10" s="7">
         <v>466</v>
@@ -2378,13 +2417,13 @@
         <v>471432</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M10" s="7">
         <v>922</v>
@@ -2393,13 +2432,13 @@
         <v>956072</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2414,13 +2453,13 @@
         <v>493075</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H11" s="7">
         <v>499</v>
@@ -2429,13 +2468,13 @@
         <v>503949</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M11" s="7">
         <v>964</v>
@@ -2444,18 +2483,18 @@
         <v>997024</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -2470,10 +2509,10 @@
         <v>12</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
@@ -2482,13 +2521,13 @@
         <v>1000</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M12" s="7">
         <v>1</v>
@@ -2497,19 +2536,19 @@
         <v>1000</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C13" s="7">
         <v>2</v>
@@ -2518,7 +2557,7 @@
         <v>1882</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>12</v>
@@ -2560,7 +2599,7 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14" s="7">
         <v>308</v>
@@ -2620,13 +2659,13 @@
         <v>318846</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H15" s="7">
         <v>335</v>
@@ -2635,13 +2674,13 @@
         <v>335412</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M15" s="7">
         <v>645</v>
@@ -2650,13 +2689,13 @@
         <v>654258</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2694,7 +2733,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>21</v>
+        <v>93</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -2703,19 +2742,19 @@
         <v>2465</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
         <v>5</v>
@@ -2724,13 +2763,13 @@
         <v>5181</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H17" s="7">
         <v>27</v>
@@ -2739,13 +2778,13 @@
         <v>26932</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M17" s="7">
         <v>32</v>
@@ -2754,19 +2793,19 @@
         <v>32113</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>102</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
         <v>356</v>
@@ -2775,13 +2814,13 @@
         <v>351965</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H18" s="7">
         <v>356</v>
@@ -2790,13 +2829,13 @@
         <v>343584</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M18" s="7">
         <v>712</v>
@@ -2805,13 +2844,13 @@
         <v>695549</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2826,13 +2865,13 @@
         <v>358671</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H19" s="7">
         <v>384</v>
@@ -2841,13 +2880,13 @@
         <v>371456</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M19" s="7">
         <v>746</v>
@@ -2856,18 +2895,18 @@
         <v>730127</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2882,10 +2921,10 @@
         <v>12</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2897,10 +2936,10 @@
         <v>12</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -2912,16 +2951,16 @@
         <v>12</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C21" s="7">
         <v>5</v>
@@ -2930,13 +2969,13 @@
         <v>5069</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H21" s="7">
         <v>14</v>
@@ -2945,13 +2984,13 @@
         <v>15760</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M21" s="7">
         <v>19</v>
@@ -2960,19 +2999,19 @@
         <v>20829</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C22" s="7">
         <v>201</v>
@@ -2981,13 +3020,13 @@
         <v>198239</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H22" s="7">
         <v>184</v>
@@ -2996,13 +3035,13 @@
         <v>191908</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M22" s="7">
         <v>385</v>
@@ -3011,13 +3050,13 @@
         <v>390147</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>111</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3032,13 +3071,13 @@
         <v>203308</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H23" s="7">
         <v>198</v>
@@ -3047,13 +3086,13 @@
         <v>207668</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M23" s="7">
         <v>404</v>
@@ -3062,18 +3101,18 @@
         <v>410976</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3088,10 +3127,10 @@
         <v>12</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H24" s="7">
         <v>1</v>
@@ -3100,13 +3139,13 @@
         <v>1028</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M24" s="7">
         <v>1</v>
@@ -3115,19 +3154,19 @@
         <v>1028</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C25" s="7">
         <v>1</v>
@@ -3136,13 +3175,13 @@
         <v>879</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H25" s="7">
         <v>31</v>
@@ -3151,13 +3190,13 @@
         <v>32397</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="M25" s="7">
         <v>32</v>
@@ -3166,19 +3205,19 @@
         <v>33276</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C26" s="7">
         <v>265</v>
@@ -3187,10 +3226,10 @@
         <v>269932</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>82</v>
@@ -3202,13 +3241,13 @@
         <v>244719</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="M26" s="7">
         <v>503</v>
@@ -3217,13 +3256,13 @@
         <v>514651</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3238,13 +3277,13 @@
         <v>270811</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H27" s="7">
         <v>270</v>
@@ -3253,13 +3292,13 @@
         <v>278144</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M27" s="7">
         <v>536</v>
@@ -3268,18 +3307,18 @@
         <v>548955</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3291,13 +3330,13 @@
         <v>950</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>71</v>
+        <v>157</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -3309,10 +3348,10 @@
         <v>12</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="M28" s="7">
         <v>1</v>
@@ -3321,19 +3360,19 @@
         <v>950</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C29" s="7">
         <v>3</v>
@@ -3342,13 +3381,13 @@
         <v>3721</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="H29" s="7">
         <v>57</v>
@@ -3357,13 +3396,13 @@
         <v>57342</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="M29" s="7">
         <v>60</v>
@@ -3372,19 +3411,19 @@
         <v>61063</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C30" s="7">
         <v>594</v>
@@ -3393,13 +3432,13 @@
         <v>610356</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>105</v>
+        <v>169</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="H30" s="7">
         <v>564</v>
@@ -3408,13 +3447,13 @@
         <v>580877</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="M30" s="7">
         <v>1158</v>
@@ -3423,13 +3462,13 @@
         <v>1191233</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>172</v>
+        <v>87</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3444,13 +3483,13 @@
         <v>615027</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H31" s="7">
         <v>621</v>
@@ -3459,13 +3498,13 @@
         <v>638219</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M31" s="7">
         <v>1219</v>
@@ -3474,18 +3513,18 @@
         <v>1253246</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -3497,13 +3536,13 @@
         <v>3466</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="H32" s="7">
         <v>5</v>
@@ -3512,13 +3551,13 @@
         <v>4592</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>47</v>
+        <v>181</v>
       </c>
       <c r="M32" s="7">
         <v>8</v>
@@ -3527,19 +3566,19 @@
         <v>8057</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>92</v>
+        <v>183</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C33" s="7">
         <v>24</v>
@@ -3548,13 +3587,13 @@
         <v>23533</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="H33" s="7">
         <v>42</v>
@@ -3563,13 +3602,13 @@
         <v>44466</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>183</v>
+        <v>119</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="M33" s="7">
         <v>66</v>
@@ -3578,19 +3617,19 @@
         <v>67999</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C34" s="7">
         <v>709</v>
@@ -3599,13 +3638,13 @@
         <v>716796</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="H34" s="7">
         <v>698</v>
@@ -3614,13 +3653,13 @@
         <v>734454</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>192</v>
+        <v>87</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="M34" s="7">
         <v>1407</v>
@@ -3629,13 +3668,13 @@
         <v>1451250</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3650,13 +3689,13 @@
         <v>743795</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H35" s="7">
         <v>745</v>
@@ -3665,13 +3704,13 @@
         <v>783511</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M35" s="7">
         <v>1481</v>
@@ -3680,13 +3719,13 @@
         <v>1527306</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3703,13 +3742,13 @@
         <v>10392</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>70</v>
+        <v>201</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>72</v>
+        <v>202</v>
       </c>
       <c r="H36" s="7">
         <v>13</v>
@@ -3718,13 +3757,13 @@
         <v>12483</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>136</v>
+        <v>180</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>72</v>
+        <v>202</v>
       </c>
       <c r="M36" s="7">
         <v>22</v>
@@ -3733,19 +3772,19 @@
         <v>22874</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>178</v>
+        <v>204</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C37" s="7">
         <v>54</v>
@@ -3754,13 +3793,13 @@
         <v>55303</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>159</v>
+        <v>205</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>199</v>
+        <v>93</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="H37" s="7">
         <v>245</v>
@@ -3769,13 +3808,13 @@
         <v>251449</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>23</v>
+        <v>208</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="M37" s="7">
         <v>299</v>
@@ -3784,34 +3823,34 @@
         <v>306752</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C38" s="7">
         <v>3151</v>
       </c>
       <c r="D38" s="7">
-        <v>3210849</v>
+        <v>3210848</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="H38" s="7">
         <v>3039</v>
@@ -3820,13 +3859,13 @@
         <v>3115266</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="M38" s="7">
         <v>6190</v>
@@ -3835,13 +3874,13 @@
         <v>6326115</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3853,16 +3892,16 @@
         <v>3214</v>
       </c>
       <c r="D39" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H39" s="7">
         <v>3297</v>
@@ -3871,13 +3910,13 @@
         <v>3379198</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M39" s="7">
         <v>6511</v>
@@ -3886,18 +3925,18 @@
         <v>6655741</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -3921,7 +3960,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{019FCBFB-44F5-4A48-A86A-F91F54304B6F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F375553A-A879-4C4B-90FA-E6B040816F7F}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3938,7 +3977,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4043,129 +4082,129 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4178,44 +4217,44 @@
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
       </c>
       <c r="N7" s="7"/>
       <c r="O7" s="7" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -4230,10 +4269,10 @@
         <v>12</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="H8" s="7">
         <v>4</v>
@@ -4242,13 +4281,13 @@
         <v>4072</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>218</v>
+        <v>157</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>136</v>
+        <v>225</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>219</v>
+        <v>73</v>
       </c>
       <c r="M8" s="7">
         <v>4</v>
@@ -4257,19 +4296,19 @@
         <v>4072</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>221</v>
+        <v>46</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>46</v>
+        <v>227</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9" s="7">
         <v>7</v>
@@ -4278,13 +4317,13 @@
         <v>6661</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="H9" s="7">
         <v>12</v>
@@ -4293,13 +4332,13 @@
         <v>12969</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>226</v>
+        <v>43</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="M9" s="7">
         <v>19</v>
@@ -4308,19 +4347,19 @@
         <v>19630</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C10" s="7">
         <v>465</v>
@@ -4329,28 +4368,28 @@
         <v>498866</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="H10" s="7">
         <v>463</v>
       </c>
       <c r="I10" s="7">
-        <v>505695</v>
+        <v>505696</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="M10" s="7">
         <v>928</v>
@@ -4359,13 +4398,13 @@
         <v>1004562</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>111</v>
+        <v>243</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4380,28 +4419,28 @@
         <v>505527</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H11" s="7">
         <v>479</v>
       </c>
       <c r="I11" s="7">
-        <v>522736</v>
+        <v>522737</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M11" s="7">
         <v>951</v>
@@ -4410,18 +4449,18 @@
         <v>1028264</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -4433,13 +4472,13 @@
         <v>952</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="H12" s="7">
         <v>3</v>
@@ -4448,13 +4487,13 @@
         <v>3014</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>241</v>
+        <v>139</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="M12" s="7">
         <v>4</v>
@@ -4463,19 +4502,19 @@
         <v>3967</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>70</v>
+        <v>161</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C13" s="7">
         <v>2</v>
@@ -4484,13 +4523,13 @@
         <v>1937</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="H13" s="7">
         <v>21</v>
@@ -4499,13 +4538,13 @@
         <v>20802</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="M13" s="7">
         <v>23</v>
@@ -4514,19 +4553,19 @@
         <v>22739</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>251</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14" s="7">
         <v>315</v>
@@ -4535,13 +4574,13 @@
         <v>320222</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="H14" s="7">
         <v>292</v>
@@ -4550,13 +4589,13 @@
         <v>316244</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="M14" s="7">
         <v>607</v>
@@ -4565,13 +4604,13 @@
         <v>636466</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>258</v>
+        <v>39</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4586,13 +4625,13 @@
         <v>323111</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H15" s="7">
         <v>316</v>
@@ -4601,13 +4640,13 @@
         <v>340060</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M15" s="7">
         <v>634</v>
@@ -4616,13 +4655,13 @@
         <v>663171</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4639,13 +4678,13 @@
         <v>877</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>262</v>
+        <v>72</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -4654,13 +4693,13 @@
         <v>7092</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>217</v>
+        <v>265</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>250</v>
+        <v>266</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -4669,19 +4708,19 @@
         <v>7969</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>42</v>
+        <v>268</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
         <v>4</v>
@@ -4690,13 +4729,13 @@
         <v>3364</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="H17" s="7">
         <v>29</v>
@@ -4705,13 +4744,13 @@
         <v>29513</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>50</v>
+        <v>273</v>
       </c>
       <c r="M17" s="7">
         <v>33</v>
@@ -4720,19 +4759,19 @@
         <v>32878</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>269</v>
+        <v>91</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>270</v>
+        <v>205</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>271</v>
+        <v>253</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
         <v>619</v>
@@ -4741,13 +4780,13 @@
         <v>662453</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="H18" s="7">
         <v>591</v>
@@ -4756,13 +4795,13 @@
         <v>638490</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="M18" s="7">
         <v>1210</v>
@@ -4771,13 +4810,13 @@
         <v>1300943</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>88</v>
+        <v>280</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4792,13 +4831,13 @@
         <v>666694</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H19" s="7">
         <v>626</v>
@@ -4807,13 +4846,13 @@
         <v>675095</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M19" s="7">
         <v>1250</v>
@@ -4822,18 +4861,18 @@
         <v>1341789</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4845,13 +4884,13 @@
         <v>1134</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4863,10 +4902,10 @@
         <v>12</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -4875,19 +4914,19 @@
         <v>1134</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>244</v>
+        <v>285</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C21" s="7">
         <v>1</v>
@@ -4896,13 +4935,13 @@
         <v>1146</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="H21" s="7">
         <v>6</v>
@@ -4911,13 +4950,13 @@
         <v>5745</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="M21" s="7">
         <v>7</v>
@@ -4926,19 +4965,19 @@
         <v>6892</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C22" s="7">
         <v>193</v>
@@ -4947,10 +4986,10 @@
         <v>209192</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>82</v>
@@ -4962,13 +5001,13 @@
         <v>212902</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>207</v>
+        <v>295</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="M22" s="7">
         <v>398</v>
@@ -4977,13 +5016,13 @@
         <v>422094</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4998,13 +5037,13 @@
         <v>211472</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H23" s="7">
         <v>211</v>
@@ -5013,13 +5052,13 @@
         <v>218647</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M23" s="7">
         <v>406</v>
@@ -5028,18 +5067,18 @@
         <v>430120</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -5051,13 +5090,13 @@
         <v>911</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="H24" s="7">
         <v>6</v>
@@ -5066,13 +5105,13 @@
         <v>5857</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>51</v>
+        <v>303</v>
       </c>
       <c r="M24" s="7">
         <v>7</v>
@@ -5081,19 +5120,19 @@
         <v>6767</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>42</v>
+        <v>304</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>95</v>
+        <v>204</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>225</v>
+        <v>305</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C25" s="7">
         <v>5</v>
@@ -5102,13 +5141,13 @@
         <v>4894</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>270</v>
+        <v>162</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="H25" s="7">
         <v>11</v>
@@ -5117,13 +5156,13 @@
         <v>11523</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>91</v>
+        <v>247</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="M25" s="7">
         <v>16</v>
@@ -5132,19 +5171,19 @@
         <v>16418</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>303</v>
+        <v>78</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C26" s="7">
         <v>254</v>
@@ -5153,13 +5192,13 @@
         <v>267101</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>306</v>
+        <v>256</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>307</v>
+        <v>155</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="H26" s="7">
         <v>250</v>
@@ -5168,13 +5207,13 @@
         <v>260862</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>173</v>
+        <v>314</v>
       </c>
       <c r="M26" s="7">
         <v>504</v>
@@ -5183,13 +5222,13 @@
         <v>527963</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5204,13 +5243,13 @@
         <v>272906</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H27" s="7">
         <v>267</v>
@@ -5219,13 +5258,13 @@
         <v>278242</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M27" s="7">
         <v>527</v>
@@ -5234,18 +5273,18 @@
         <v>551148</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5257,13 +5296,13 @@
         <v>986</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="H28" s="7">
         <v>4</v>
@@ -5272,13 +5311,13 @@
         <v>3900</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>48</v>
+        <v>319</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>314</v>
+        <v>201</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="M28" s="7">
         <v>5</v>
@@ -5287,19 +5326,19 @@
         <v>4887</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>314</v>
+        <v>201</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C29" s="7">
         <v>11</v>
@@ -5308,13 +5347,13 @@
         <v>14537</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>250</v>
+        <v>321</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>17</v>
+        <v>322</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>53</v>
+        <v>323</v>
       </c>
       <c r="H29" s="7">
         <v>55</v>
@@ -5323,13 +5362,13 @@
         <v>58820</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="M29" s="7">
         <v>66</v>
@@ -5338,19 +5377,19 @@
         <v>73357</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>319</v>
+        <v>75</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C30" s="7">
         <v>600</v>
@@ -5359,13 +5398,13 @@
         <v>640451</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="H30" s="7">
         <v>575</v>
@@ -5374,13 +5413,13 @@
         <v>628772</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>327</v>
+        <v>258</v>
       </c>
       <c r="M30" s="7">
         <v>1175</v>
@@ -5389,13 +5428,13 @@
         <v>1269223</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>130</v>
+        <v>336</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5410,13 +5449,13 @@
         <v>655974</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H31" s="7">
         <v>634</v>
@@ -5425,13 +5464,13 @@
         <v>691492</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M31" s="7">
         <v>1246</v>
@@ -5440,18 +5479,18 @@
         <v>1347466</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -5463,13 +5502,13 @@
         <v>2356</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>179</v>
+        <v>337</v>
       </c>
       <c r="H32" s="7">
         <v>8</v>
@@ -5478,13 +5517,13 @@
         <v>9032</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>229</v>
+        <v>338</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="M32" s="7">
         <v>10</v>
@@ -5493,19 +5532,19 @@
         <v>11388</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>262</v>
+        <v>341</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>220</v>
+        <v>18</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C33" s="7">
         <v>43</v>
@@ -5514,13 +5553,13 @@
         <v>45545</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>77</v>
+        <v>190</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="H33" s="7">
         <v>84</v>
@@ -5529,13 +5568,13 @@
         <v>90758</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="M33" s="7">
         <v>127</v>
@@ -5544,19 +5583,19 @@
         <v>136303</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C34" s="7">
         <v>671</v>
@@ -5565,13 +5604,13 @@
         <v>730066</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="H34" s="7">
         <v>660</v>
@@ -5580,13 +5619,13 @@
         <v>718736</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="M34" s="7">
         <v>1331</v>
@@ -5595,13 +5634,13 @@
         <v>1448801</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>347</v>
+        <v>357</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5616,13 +5655,13 @@
         <v>777967</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H35" s="7">
         <v>752</v>
@@ -5631,13 +5670,13 @@
         <v>818526</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M35" s="7">
         <v>1468</v>
@@ -5646,13 +5685,13 @@
         <v>1596492</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -5669,13 +5708,13 @@
         <v>7216</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>45</v>
+        <v>360</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>350</v>
+        <v>361</v>
       </c>
       <c r="H36" s="7">
         <v>31</v>
@@ -5684,13 +5723,13 @@
         <v>32967</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>351</v>
+        <v>362</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>266</v>
+        <v>179</v>
       </c>
       <c r="M36" s="7">
         <v>38</v>
@@ -5699,19 +5738,19 @@
         <v>40183</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>350</v>
+        <v>90</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>353</v>
+        <v>364</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C37" s="7">
         <v>73</v>
@@ -5720,13 +5759,13 @@
         <v>78084</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>354</v>
+        <v>365</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>219</v>
+        <v>366</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>355</v>
+        <v>235</v>
       </c>
       <c r="H37" s="7">
         <v>218</v>
@@ -5735,13 +5774,13 @@
         <v>230131</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>356</v>
+        <v>325</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="M37" s="7">
         <v>291</v>
@@ -5750,19 +5789,19 @@
         <v>308216</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>251</v>
+        <v>371</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C38" s="7">
         <v>3117</v>
@@ -5771,13 +5810,13 @@
         <v>3328350</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>361</v>
+        <v>372</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="H38" s="7">
         <v>3036</v>
@@ -5786,13 +5825,13 @@
         <v>3281700</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>365</v>
+        <v>376</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>366</v>
+        <v>377</v>
       </c>
       <c r="M38" s="7">
         <v>6153</v>
@@ -5801,13 +5840,13 @@
         <v>6610051</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>368</v>
+        <v>379</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>369</v>
+        <v>380</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -5822,13 +5861,13 @@
         <v>3413651</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H39" s="7">
         <v>3285</v>
@@ -5837,13 +5876,13 @@
         <v>3544798</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M39" s="7">
         <v>6482</v>
@@ -5852,18 +5891,18 @@
         <v>6958450</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -5887,7 +5926,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5C0CACD-2BDF-4E07-B92F-766F9534C607}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E69FC39D-10A9-40AD-94E9-ED286213A550}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5904,7 +5943,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>370</v>
+        <v>381</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6014,10 +6053,10 @@
         <v>12</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>371</v>
+        <v>382</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -6026,13 +6065,13 @@
         <v>922</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -6041,19 +6080,19 @@
         <v>922</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>353</v>
+        <v>384</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>5</v>
@@ -6062,13 +6101,13 @@
         <v>4717</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>374</v>
+        <v>386</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>271</v>
+        <v>387</v>
       </c>
       <c r="H5" s="7">
         <v>7</v>
@@ -6077,13 +6116,13 @@
         <v>7942</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>375</v>
+        <v>388</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>376</v>
+        <v>322</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
       <c r="M5" s="7">
         <v>12</v>
@@ -6092,19 +6131,19 @@
         <v>12659</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>378</v>
+        <v>340</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>379</v>
+        <v>304</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>380</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>258</v>
@@ -6113,13 +6152,13 @@
         <v>284573</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>382</v>
+        <v>298</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>272</v>
+        <v>391</v>
       </c>
       <c r="H6" s="7">
         <v>269</v>
@@ -6128,13 +6167,13 @@
         <v>279839</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>383</v>
+        <v>392</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="M6" s="7">
         <v>527</v>
@@ -6143,13 +6182,13 @@
         <v>564412</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>387</v>
+        <v>281</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>231</v>
+        <v>396</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6164,13 +6203,13 @@
         <v>289290</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H7" s="7">
         <v>277</v>
@@ -6179,13 +6218,13 @@
         <v>288703</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M7" s="7">
         <v>540</v>
@@ -6194,18 +6233,18 @@
         <v>577993</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -6220,10 +6259,10 @@
         <v>12</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -6235,10 +6274,10 @@
         <v>12</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -6250,16 +6289,16 @@
         <v>12</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9" s="7">
         <v>0</v>
@@ -6271,10 +6310,10 @@
         <v>12</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="H9" s="7">
         <v>3</v>
@@ -6283,13 +6322,13 @@
         <v>3138</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="M9" s="7">
         <v>3</v>
@@ -6298,19 +6337,19 @@
         <v>3138</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>221</v>
+        <v>46</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>46</v>
+        <v>398</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C10" s="7">
         <v>473</v>
@@ -6322,10 +6361,10 @@
         <v>82</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H10" s="7">
         <v>481</v>
@@ -6334,28 +6373,28 @@
         <v>519946</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>167</v>
+        <v>402</v>
       </c>
       <c r="M10" s="7">
         <v>954</v>
       </c>
       <c r="N10" s="7">
-        <v>1020384</v>
+        <v>1020383</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>392</v>
+        <v>403</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>393</v>
+        <v>404</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>394</v>
+        <v>405</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6370,13 +6409,13 @@
         <v>500437</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H11" s="7">
         <v>484</v>
@@ -6385,33 +6424,33 @@
         <v>523084</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M11" s="7">
         <v>957</v>
       </c>
       <c r="N11" s="7">
-        <v>1023522</v>
+        <v>1023521</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -6426,10 +6465,10 @@
         <v>12</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="H12" s="7">
         <v>2</v>
@@ -6438,13 +6477,13 @@
         <v>1707</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>395</v>
+        <v>406</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>219</v>
+        <v>407</v>
       </c>
       <c r="M12" s="7">
         <v>2</v>
@@ -6453,19 +6492,19 @@
         <v>1707</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C13" s="7">
         <v>1</v>
@@ -6474,13 +6513,13 @@
         <v>996</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
       <c r="H13" s="7">
         <v>21</v>
@@ -6489,13 +6528,13 @@
         <v>19587</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>397</v>
+        <v>409</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>398</v>
+        <v>410</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>399</v>
+        <v>411</v>
       </c>
       <c r="M13" s="7">
         <v>22</v>
@@ -6504,19 +6543,19 @@
         <v>20584</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>400</v>
+        <v>412</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>401</v>
+        <v>413</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>203</v>
+        <v>414</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14" s="7">
         <v>333</v>
@@ -6525,10 +6564,10 @@
         <v>316605</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>392</v>
+        <v>403</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>402</v>
+        <v>415</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>82</v>
@@ -6540,13 +6579,13 @@
         <v>311174</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>110</v>
+        <v>416</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>403</v>
+        <v>417</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>404</v>
+        <v>418</v>
       </c>
       <c r="M14" s="7">
         <v>638</v>
@@ -6555,13 +6594,13 @@
         <v>627779</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>405</v>
+        <v>419</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>406</v>
+        <v>378</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>407</v>
+        <v>420</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6576,13 +6615,13 @@
         <v>317601</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H15" s="7">
         <v>328</v>
@@ -6591,13 +6630,13 @@
         <v>332468</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M15" s="7">
         <v>662</v>
@@ -6606,13 +6645,13 @@
         <v>650069</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6629,13 +6668,13 @@
         <v>959</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>222</v>
+        <v>95</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -6644,13 +6683,13 @@
         <v>1913</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>408</v>
+        <v>421</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
@@ -6659,19 +6698,19 @@
         <v>2872</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>409</v>
+        <v>422</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>137</v>
+        <v>423</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
         <v>1</v>
@@ -6680,13 +6719,13 @@
         <v>1009</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>264</v>
+        <v>424</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>388</v>
+        <v>425</v>
       </c>
       <c r="H17" s="7">
         <v>8</v>
@@ -6695,13 +6734,13 @@
         <v>7574</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>410</v>
+        <v>426</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>24</v>
+        <v>427</v>
       </c>
       <c r="M17" s="7">
         <v>9</v>
@@ -6710,19 +6749,19 @@
         <v>8583</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>411</v>
+        <v>428</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>95</v>
+        <v>204</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>412</v>
+        <v>429</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
         <v>350</v>
@@ -6731,10 +6770,10 @@
         <v>366203</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>413</v>
+        <v>430</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>414</v>
+        <v>431</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>82</v>
@@ -6746,13 +6785,13 @@
         <v>376763</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>415</v>
+        <v>432</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>369</v>
+        <v>433</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="M18" s="7">
         <v>697</v>
@@ -6761,13 +6800,13 @@
         <v>742966</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>273</v>
+        <v>215</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>417</v>
+        <v>435</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>418</v>
+        <v>436</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6782,13 +6821,13 @@
         <v>368171</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H19" s="7">
         <v>357</v>
@@ -6797,13 +6836,13 @@
         <v>386250</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M19" s="7">
         <v>709</v>
@@ -6812,18 +6851,18 @@
         <v>754420</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -6838,10 +6877,10 @@
         <v>12</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>419</v>
+        <v>288</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -6853,10 +6892,10 @@
         <v>12</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>420</v>
+        <v>437</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -6868,16 +6907,16 @@
         <v>12</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>421</v>
+        <v>438</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C21" s="7">
         <v>3</v>
@@ -6886,13 +6925,13 @@
         <v>2817</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>350</v>
+        <v>361</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>422</v>
+        <v>439</v>
       </c>
       <c r="H21" s="7">
         <v>3</v>
@@ -6901,13 +6940,13 @@
         <v>2528</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>423</v>
+        <v>322</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>424</v>
+        <v>440</v>
       </c>
       <c r="M21" s="7">
         <v>6</v>
@@ -6916,19 +6955,19 @@
         <v>5346</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>285</v>
+        <v>441</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>350</v>
+        <v>90</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>425</v>
+        <v>442</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C22" s="7">
         <v>209</v>
@@ -6937,13 +6976,13 @@
         <v>208404</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>426</v>
+        <v>396</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>189</v>
+        <v>443</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>427</v>
+        <v>444</v>
       </c>
       <c r="H22" s="7">
         <v>219</v>
@@ -6952,13 +6991,13 @@
         <v>215232</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>428</v>
+        <v>445</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>362</v>
+        <v>446</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="M22" s="7">
         <v>428</v>
@@ -6967,13 +7006,13 @@
         <v>423635</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>293</v>
+        <v>448</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>427</v>
+        <v>449</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6988,13 +7027,13 @@
         <v>211221</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H23" s="7">
         <v>222</v>
@@ -7003,13 +7042,13 @@
         <v>217760</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M23" s="7">
         <v>434</v>
@@ -7018,18 +7057,18 @@
         <v>428981</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -7044,10 +7083,10 @@
         <v>12</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>431</v>
+        <v>450</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -7059,10 +7098,10 @@
         <v>12</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>371</v>
+        <v>382</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -7074,16 +7113,16 @@
         <v>12</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C25" s="7">
         <v>3</v>
@@ -7092,13 +7131,13 @@
         <v>2902</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>229</v>
+        <v>338</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>432</v>
+        <v>451</v>
       </c>
       <c r="H25" s="7">
         <v>3</v>
@@ -7107,13 +7146,13 @@
         <v>2717</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>433</v>
+        <v>452</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>355</v>
+        <v>453</v>
       </c>
       <c r="M25" s="7">
         <v>6</v>
@@ -7122,19 +7161,19 @@
         <v>5620</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>434</v>
+        <v>406</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>298</v>
+        <v>365</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C26" s="7">
         <v>256</v>
@@ -7143,13 +7182,13 @@
         <v>260221</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>435</v>
+        <v>454</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>436</v>
+        <v>455</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>437</v>
+        <v>456</v>
       </c>
       <c r="H26" s="7">
         <v>259</v>
@@ -7158,13 +7197,13 @@
         <v>269386</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>438</v>
+        <v>457</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>439</v>
+        <v>458</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M26" s="7">
         <v>515</v>
@@ -7173,13 +7212,13 @@
         <v>529606</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>440</v>
+        <v>459</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>441</v>
+        <v>460</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>442</v>
+        <v>461</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7194,13 +7233,13 @@
         <v>263123</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H27" s="7">
         <v>262</v>
@@ -7209,13 +7248,13 @@
         <v>272103</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M27" s="7">
         <v>521</v>
@@ -7224,18 +7263,18 @@
         <v>535226</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -7250,10 +7289,10 @@
         <v>12</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="H28" s="7">
         <v>3</v>
@@ -7262,13 +7301,13 @@
         <v>2907</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>350</v>
+        <v>361</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>314</v>
+        <v>263</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>411</v>
+        <v>462</v>
       </c>
       <c r="M28" s="7">
         <v>3</v>
@@ -7277,19 +7316,19 @@
         <v>2907</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>443</v>
+        <v>463</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>444</v>
+        <v>464</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C29" s="7">
         <v>6</v>
@@ -7298,13 +7337,13 @@
         <v>6477</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>445</v>
+        <v>465</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>446</v>
+        <v>466</v>
       </c>
       <c r="H29" s="7">
         <v>16</v>
@@ -7313,13 +7352,13 @@
         <v>16737</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>447</v>
+        <v>305</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>315</v>
+        <v>467</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>448</v>
+        <v>370</v>
       </c>
       <c r="M29" s="7">
         <v>22</v>
@@ -7328,19 +7367,19 @@
         <v>23214</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>449</v>
+        <v>468</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>450</v>
+        <v>428</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>425</v>
+        <v>469</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C30" s="7">
         <v>570</v>
@@ -7349,13 +7388,13 @@
         <v>645779</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>451</v>
+        <v>470</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>452</v>
+        <v>374</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>453</v>
+        <v>471</v>
       </c>
       <c r="H30" s="7">
         <v>623</v>
@@ -7364,13 +7403,13 @@
         <v>666754</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>454</v>
+        <v>472</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>455</v>
+        <v>473</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>456</v>
+        <v>170</v>
       </c>
       <c r="M30" s="7">
         <v>1193</v>
@@ -7379,13 +7418,13 @@
         <v>1312533</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>457</v>
+        <v>474</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>454</v>
+        <v>475</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>458</v>
+        <v>394</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7400,13 +7439,13 @@
         <v>652256</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H31" s="7">
         <v>642</v>
@@ -7415,13 +7454,13 @@
         <v>686398</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M31" s="7">
         <v>1218</v>
@@ -7430,18 +7469,18 @@
         <v>1338654</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -7453,13 +7492,13 @@
         <v>1059</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>314</v>
+        <v>201</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>459</v>
+        <v>476</v>
       </c>
       <c r="H32" s="7">
         <v>11</v>
@@ -7468,13 +7507,13 @@
         <v>11241</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>460</v>
+        <v>43</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>431</v>
+        <v>382</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>461</v>
+        <v>477</v>
       </c>
       <c r="M32" s="7">
         <v>12</v>
@@ -7483,19 +7522,19 @@
         <v>12300</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>90</v>
+        <v>478</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>176</v>
+        <v>93</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C33" s="7">
         <v>11</v>
@@ -7504,13 +7543,13 @@
         <v>10960</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>462</v>
+        <v>479</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>447</v>
+        <v>231</v>
       </c>
       <c r="H33" s="7">
         <v>45</v>
@@ -7519,13 +7558,13 @@
         <v>45843</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>464</v>
+        <v>480</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>465</v>
+        <v>481</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>466</v>
+        <v>482</v>
       </c>
       <c r="M33" s="7">
         <v>56</v>
@@ -7534,19 +7573,19 @@
         <v>56803</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>271</v>
+        <v>483</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>467</v>
+        <v>484</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>468</v>
+        <v>485</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C34" s="7">
         <v>737</v>
@@ -7555,13 +7594,13 @@
         <v>765643</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>469</v>
+        <v>486</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>470</v>
+        <v>295</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>127</v>
+        <v>487</v>
       </c>
       <c r="H34" s="7">
         <v>698</v>
@@ -7570,13 +7609,13 @@
         <v>768003</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>471</v>
+        <v>218</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>472</v>
+        <v>488</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>292</v>
+        <v>489</v>
       </c>
       <c r="M34" s="7">
         <v>1435</v>
@@ -7585,13 +7624,13 @@
         <v>1533647</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>473</v>
+        <v>490</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>275</v>
+        <v>491</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>474</v>
+        <v>492</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7606,13 +7645,13 @@
         <v>777662</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H35" s="7">
         <v>754</v>
@@ -7621,13 +7660,13 @@
         <v>825087</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M35" s="7">
         <v>1503</v>
@@ -7636,13 +7675,13 @@
         <v>1602750</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -7659,13 +7698,13 @@
         <v>2018</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>475</v>
+        <v>493</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="H36" s="7">
         <v>19</v>
@@ -7674,13 +7713,13 @@
         <v>18690</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>296</v>
+        <v>140</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>476</v>
+        <v>494</v>
       </c>
       <c r="M36" s="7">
         <v>21</v>
@@ -7689,19 +7728,19 @@
         <v>20708</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>477</v>
+        <v>495</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C37" s="7">
         <v>30</v>
@@ -7710,13 +7749,13 @@
         <v>29878</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>478</v>
+        <v>496</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>72</v>
+        <v>160</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>479</v>
+        <v>304</v>
       </c>
       <c r="H37" s="7">
         <v>106</v>
@@ -7725,13 +7764,13 @@
         <v>106067</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>480</v>
+        <v>284</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>481</v>
+        <v>442</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>482</v>
+        <v>497</v>
       </c>
       <c r="M37" s="7">
         <v>136</v>
@@ -7740,19 +7779,19 @@
         <v>135945</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>483</v>
+        <v>498</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>484</v>
+        <v>205</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>485</v>
+        <v>499</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C38" s="7">
         <v>3186</v>
@@ -7761,13 +7800,13 @@
         <v>3347865</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>486</v>
+        <v>500</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>487</v>
+        <v>236</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>272</v>
+        <v>391</v>
       </c>
       <c r="H38" s="7">
         <v>3201</v>
@@ -7776,13 +7815,13 @@
         <v>3407095</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>488</v>
+        <v>501</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>489</v>
+        <v>502</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>490</v>
+        <v>503</v>
       </c>
       <c r="M38" s="7">
         <v>6387</v>
@@ -7791,13 +7830,13 @@
         <v>6754960</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>491</v>
+        <v>504</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>492</v>
+        <v>505</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>493</v>
+        <v>506</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7812,13 +7851,13 @@
         <v>3379761</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H39" s="7">
         <v>3326</v>
@@ -7827,13 +7866,13 @@
         <v>3531852</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M39" s="7">
         <v>6544</v>
@@ -7842,18 +7881,18 @@
         <v>6911613</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Q45B-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q45B-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{724EA864-143E-4D52-BE57-2D3A0D58865D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{51F3F2CB-FFE8-41E7-8202-0B5FA4B89156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{17E7F467-3FAD-4BCD-84E5-2EE25B584E40}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D79D3019-A5EA-48CF-B7D6-375CE96A8A8C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="503">
   <si>
     <t>Población según si han utilizado en los últimos 5 años cabinas o lámparas de rayos ultravioletas en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -79,1486 +79,1474 @@
     <t>0,0%</t>
   </si>
   <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>Si alguna vez</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
     <t>3,76%</t>
   </si>
   <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>No nunca</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>88,5%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
   </si>
   <si>
     <t>0,37%</t>
   </si>
   <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>91,2%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>87,78%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>89,4%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>87,42%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>87,98%</t>
+  </si>
+  <si>
+    <t>83,46%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>91,02%</t>
+  </si>
+  <si>
+    <t>88,8%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si han utilizado en los últimos 5 años cabinas o lámparas de rayos ultravioletas en 2012 (Tasa respuesta: 99,62%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>89,89%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>90,19%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>90,93%</t>
+  </si>
+  <si>
+    <t>88,23%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>87,81%</t>
+  </si>
+  <si>
+    <t>85,3%</t>
+  </si>
+  <si>
+    <t>90,04%</t>
+  </si>
+  <si>
+    <t>90,75%</t>
+  </si>
+  <si>
+    <t>89,03%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>Población según si han utilizado en los últimos 5 años cabinas o lámparas de rayos ultravioletas en 2016 (Tasa respuesta: 99,62%)</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
     <t>2,34%</t>
   </si>
   <si>
-    <t>Si alguna vez</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>No nunca</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
   </si>
   <si>
     <t>98,07%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>88,2%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>88,26%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>89,38%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>88,15%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>87,98%</t>
-  </si>
-  <si>
-    <t>83,39%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>91,02%</t>
-  </si>
-  <si>
-    <t>88,42%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si han utilizado en los últimos 5 años cabinas o lámparas de rayos ultravioletas en 2012 (Tasa respuesta: 99,62%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>89,8%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>90,39%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>90,93%</t>
-  </si>
-  <si>
-    <t>88,69%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>87,81%</t>
-  </si>
-  <si>
-    <t>85,44%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>90,75%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>91,69%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>Población según si han utilizado en los últimos 5 años cabinas o lámparas de rayos ultravioletas en 2016 (Tasa respuesta: 99,62%)</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>91,07%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
   </si>
 </sst>
 </file>
@@ -1970,7 +1958,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A116FC1-F680-4197-BC04-CBC3E4ADF59B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFD6D10C-83C6-442C-B355-75BB00007BFC}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2300,13 +2288,13 @@
         <v>1865</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -2315,13 +2303,13 @@
         <v>1838</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M8" s="7">
         <v>4</v>
@@ -2330,13 +2318,13 @@
         <v>3703</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="P8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2351,13 +2339,13 @@
         <v>6570</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>50</v>
       </c>
       <c r="H9" s="7">
         <v>31</v>
@@ -2366,13 +2354,13 @@
         <v>30679</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="M9" s="7">
         <v>38</v>
@@ -2381,13 +2369,13 @@
         <v>37248</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2402,13 +2390,13 @@
         <v>484640</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="H10" s="7">
         <v>466</v>
@@ -2417,13 +2405,13 @@
         <v>471432</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="M10" s="7">
         <v>922</v>
@@ -2432,13 +2420,13 @@
         <v>956072</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2494,7 +2482,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -2509,10 +2497,10 @@
         <v>12</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
@@ -2521,13 +2509,13 @@
         <v>1000</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="M12" s="7">
         <v>1</v>
@@ -2536,13 +2524,13 @@
         <v>1000</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2557,13 +2545,13 @@
         <v>1882</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>27</v>
@@ -2572,13 +2560,13 @@
         <v>26846</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="M13" s="7">
         <v>29</v>
@@ -2587,13 +2575,13 @@
         <v>28728</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2608,13 +2596,13 @@
         <v>316964</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="H14" s="7">
         <v>307</v>
@@ -2623,13 +2611,13 @@
         <v>307566</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="M14" s="7">
         <v>615</v>
@@ -2638,13 +2626,13 @@
         <v>624530</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2700,7 +2688,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2712,13 +2700,13 @@
         <v>1526</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -2727,13 +2715,13 @@
         <v>940</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -2742,13 +2730,13 @@
         <v>2465</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2763,13 +2751,13 @@
         <v>5181</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="H17" s="7">
         <v>27</v>
@@ -2778,13 +2766,13 @@
         <v>26932</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M17" s="7">
         <v>32</v>
@@ -2793,13 +2781,13 @@
         <v>32113</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2814,13 +2802,13 @@
         <v>351965</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="F18" s="7" t="s">
-        <v>105</v>
-      </c>
       <c r="G18" s="7" t="s">
-        <v>106</v>
+        <v>57</v>
       </c>
       <c r="H18" s="7">
         <v>356</v>
@@ -2829,13 +2817,13 @@
         <v>343584</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="M18" s="7">
         <v>712</v>
@@ -2844,13 +2832,13 @@
         <v>695549</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2906,7 +2894,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2921,10 +2909,10 @@
         <v>12</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2936,10 +2924,10 @@
         <v>12</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -2951,10 +2939,10 @@
         <v>12</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2969,13 +2957,13 @@
         <v>5069</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H21" s="7">
         <v>14</v>
@@ -2984,13 +2972,13 @@
         <v>15760</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M21" s="7">
         <v>19</v>
@@ -2999,13 +2987,13 @@
         <v>20829</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3020,13 +3008,13 @@
         <v>198239</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H22" s="7">
         <v>184</v>
@@ -3035,13 +3023,13 @@
         <v>191908</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="M22" s="7">
         <v>385</v>
@@ -3050,13 +3038,13 @@
         <v>390147</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3112,7 +3100,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3127,10 +3115,10 @@
         <v>12</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="H24" s="7">
         <v>1</v>
@@ -3139,13 +3127,13 @@
         <v>1028</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="M24" s="7">
         <v>1</v>
@@ -3154,13 +3142,13 @@
         <v>1028</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3175,13 +3163,13 @@
         <v>879</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H25" s="7">
         <v>31</v>
@@ -3190,13 +3178,13 @@
         <v>32397</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="M25" s="7">
         <v>32</v>
@@ -3205,13 +3193,13 @@
         <v>33276</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3226,13 +3214,13 @@
         <v>269932</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H26" s="7">
         <v>238</v>
@@ -3241,13 +3229,13 @@
         <v>244719</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="M26" s="7">
         <v>503</v>
@@ -3256,13 +3244,13 @@
         <v>514651</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3318,7 +3306,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3330,13 +3318,13 @@
         <v>950</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -3348,10 +3336,10 @@
         <v>12</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="M28" s="7">
         <v>1</v>
@@ -3360,13 +3348,13 @@
         <v>950</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>42</v>
+        <v>157</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3381,13 +3369,13 @@
         <v>3721</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="H29" s="7">
         <v>57</v>
@@ -3396,13 +3384,13 @@
         <v>57342</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="M29" s="7">
         <v>60</v>
@@ -3411,13 +3399,13 @@
         <v>61063</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3432,13 +3420,13 @@
         <v>610356</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="H30" s="7">
         <v>564</v>
@@ -3447,13 +3435,13 @@
         <v>580877</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="M30" s="7">
         <v>1158</v>
@@ -3462,13 +3450,13 @@
         <v>1191233</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3524,7 +3512,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -3536,13 +3524,13 @@
         <v>3466</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H32" s="7">
         <v>5</v>
@@ -3551,13 +3539,13 @@
         <v>4592</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M32" s="7">
         <v>8</v>
@@ -3566,13 +3554,13 @@
         <v>8057</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>182</v>
+        <v>95</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3587,13 +3575,13 @@
         <v>23533</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="H33" s="7">
         <v>42</v>
@@ -3602,13 +3590,13 @@
         <v>44466</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>119</v>
+        <v>185</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M33" s="7">
         <v>66</v>
@@ -3617,13 +3605,13 @@
         <v>67999</v>
       </c>
       <c r="O33" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q33" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3638,13 +3626,13 @@
         <v>716796</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="H34" s="7">
         <v>698</v>
@@ -3653,13 +3641,13 @@
         <v>734454</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>87</v>
+        <v>194</v>
       </c>
       <c r="K34" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="M34" s="7">
         <v>1407</v>
@@ -3668,13 +3656,13 @@
         <v>1451250</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3742,13 +3730,13 @@
         <v>10392</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>201</v>
+        <v>69</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>202</v>
+        <v>71</v>
       </c>
       <c r="H36" s="7">
         <v>13</v>
@@ -3757,13 +3745,13 @@
         <v>12483</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M36" s="7">
         <v>22</v>
@@ -3772,13 +3760,13 @@
         <v>22874</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>203</v>
+        <v>178</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>204</v>
+        <v>95</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3793,13 +3781,13 @@
         <v>55303</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="H37" s="7">
         <v>245</v>
@@ -3808,13 +3796,13 @@
         <v>251449</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="M37" s="7">
         <v>299</v>
@@ -3823,13 +3811,13 @@
         <v>306752</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3841,16 +3829,16 @@
         <v>3151</v>
       </c>
       <c r="D38" s="7">
-        <v>3210848</v>
+        <v>3210849</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H38" s="7">
         <v>3039</v>
@@ -3859,28 +3847,28 @@
         <v>3115266</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="M38" s="7">
         <v>6190</v>
       </c>
       <c r="N38" s="7">
-        <v>6326115</v>
+        <v>6326114</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3892,7 +3880,7 @@
         <v>3214</v>
       </c>
       <c r="D39" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>40</v>
@@ -3922,7 +3910,7 @@
         <v>6511</v>
       </c>
       <c r="N39" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>40</v>
@@ -3936,7 +3924,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -3960,7 +3948,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F375553A-A879-4C4B-90FA-E6B040816F7F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{378CB560-505C-4B30-B106-2BFFA829478B}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3977,7 +3965,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4082,39 +4070,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4127,39 +4115,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4172,39 +4160,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4217,39 +4205,39 @@
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
       </c>
       <c r="N7" s="7"/>
       <c r="O7" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4269,10 +4257,10 @@
         <v>12</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H8" s="7">
         <v>4</v>
@@ -4281,13 +4269,13 @@
         <v>4072</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>225</v>
+        <v>135</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>73</v>
+        <v>222</v>
       </c>
       <c r="M8" s="7">
         <v>4</v>
@@ -4296,13 +4284,13 @@
         <v>4072</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>46</v>
+        <v>224</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4317,13 +4305,13 @@
         <v>6661</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>228</v>
+        <v>138</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>229</v>
+        <v>47</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="H9" s="7">
         <v>12</v>
@@ -4332,13 +4320,13 @@
         <v>12969</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>43</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="M9" s="7">
         <v>19</v>
@@ -4347,13 +4335,13 @@
         <v>19630</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4368,13 +4356,13 @@
         <v>498866</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>236</v>
+        <v>146</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="H10" s="7">
         <v>463</v>
@@ -4383,13 +4371,13 @@
         <v>505696</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>239</v>
+        <v>56</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="M10" s="7">
         <v>928</v>
@@ -4398,13 +4386,13 @@
         <v>1004562</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>243</v>
+        <v>56</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4460,7 +4448,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -4472,13 +4460,13 @@
         <v>952</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="H12" s="7">
         <v>3</v>
@@ -4487,13 +4475,13 @@
         <v>3014</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>139</v>
+        <v>240</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="M12" s="7">
         <v>4</v>
@@ -4502,13 +4490,13 @@
         <v>3967</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>161</v>
+        <v>69</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>248</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4523,13 +4511,13 @@
         <v>1937</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="H13" s="7">
         <v>21</v>
@@ -4538,13 +4526,13 @@
         <v>20802</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="M13" s="7">
         <v>23</v>
@@ -4553,13 +4541,13 @@
         <v>22739</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>100</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4574,13 +4562,13 @@
         <v>320222</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="H14" s="7">
         <v>292</v>
@@ -4589,13 +4577,13 @@
         <v>316244</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="M14" s="7">
         <v>607</v>
@@ -4607,10 +4595,10 @@
         <v>39</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4666,7 +4654,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4678,13 +4666,13 @@
         <v>877</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>72</v>
+        <v>258</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -4693,13 +4681,13 @@
         <v>7092</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -4708,13 +4696,13 @@
         <v>7969</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>267</v>
+        <v>180</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>268</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4729,13 +4717,13 @@
         <v>3364</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>270</v>
       </c>
       <c r="H17" s="7">
         <v>29</v>
@@ -4744,13 +4732,13 @@
         <v>29513</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="M17" s="7">
         <v>33</v>
@@ -4759,13 +4747,13 @@
         <v>32878</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>91</v>
+        <v>267</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>205</v>
+        <v>268</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>253</v>
+        <v>269</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4780,13 +4768,13 @@
         <v>662453</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="H18" s="7">
         <v>591</v>
@@ -4795,13 +4783,13 @@
         <v>638490</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="M18" s="7">
         <v>1210</v>
@@ -4810,13 +4798,13 @@
         <v>1300943</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4872,7 +4860,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4884,13 +4872,13 @@
         <v>1134</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4902,10 +4890,10 @@
         <v>12</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>47</v>
+        <v>281</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -4914,13 +4902,13 @@
         <v>1134</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4935,13 +4923,13 @@
         <v>1146</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H21" s="7">
         <v>6</v>
@@ -4950,13 +4938,13 @@
         <v>5745</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="M21" s="7">
         <v>7</v>
@@ -4965,13 +4953,13 @@
         <v>6892</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>291</v>
+        <v>258</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4986,13 +4974,13 @@
         <v>209192</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H22" s="7">
         <v>205</v>
@@ -5001,13 +4989,13 @@
         <v>212902</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="M22" s="7">
         <v>398</v>
@@ -5016,13 +5004,13 @@
         <v>422094</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>299</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5078,7 +5066,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -5090,13 +5078,13 @@
         <v>911</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>301</v>
+        <v>202</v>
       </c>
       <c r="H24" s="7">
         <v>6</v>
@@ -5105,13 +5093,13 @@
         <v>5857</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>136</v>
+        <v>297</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="M24" s="7">
         <v>7</v>
@@ -5120,13 +5108,13 @@
         <v>6767</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>204</v>
+        <v>300</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>305</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5141,13 +5129,13 @@
         <v>4894</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>162</v>
+        <v>301</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>306</v>
+        <v>133</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="H25" s="7">
         <v>11</v>
@@ -5156,13 +5144,13 @@
         <v>11523</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>247</v>
+        <v>304</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="M25" s="7">
         <v>16</v>
@@ -5171,13 +5159,13 @@
         <v>16418</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>78</v>
+        <v>306</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5192,13 +5180,13 @@
         <v>267101</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>256</v>
+        <v>309</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>155</v>
+        <v>310</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H26" s="7">
         <v>250</v>
@@ -5207,13 +5195,13 @@
         <v>260862</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="K26" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>314</v>
       </c>
       <c r="M26" s="7">
         <v>504</v>
@@ -5222,13 +5210,13 @@
         <v>527963</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5284,7 +5272,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5296,13 +5284,13 @@
         <v>986</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>318</v>
+        <v>116</v>
       </c>
       <c r="H28" s="7">
         <v>4</v>
@@ -5311,13 +5299,13 @@
         <v>3900</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>319</v>
+        <v>47</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>201</v>
+        <v>69</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="M28" s="7">
         <v>5</v>
@@ -5326,13 +5314,13 @@
         <v>4887</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>201</v>
+        <v>318</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>118</v>
+        <v>319</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5347,13 +5335,13 @@
         <v>14537</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>322</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>323</v>
       </c>
       <c r="H29" s="7">
         <v>55</v>
@@ -5362,13 +5350,13 @@
         <v>58820</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>325</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>326</v>
       </c>
       <c r="M29" s="7">
         <v>66</v>
@@ -5377,7 +5365,7 @@
         <v>73357</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>75</v>
+        <v>326</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>327</v>
@@ -5401,10 +5389,10 @@
         <v>329</v>
       </c>
       <c r="F30" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>330</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>331</v>
       </c>
       <c r="H30" s="7">
         <v>575</v>
@@ -5413,13 +5401,13 @@
         <v>628772</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>333</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="M30" s="7">
         <v>1175</v>
@@ -5490,7 +5478,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -5502,7 +5490,7 @@
         <v>2356</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>12</v>
@@ -5517,13 +5505,13 @@
         <v>9032</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>339</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>340</v>
       </c>
       <c r="M32" s="7">
         <v>10</v>
@@ -5532,13 +5520,13 @@
         <v>11388</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>341</v>
+        <v>70</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>18</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>342</v>
+        <v>179</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5553,13 +5541,13 @@
         <v>45545</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>343</v>
+        <v>117</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>190</v>
+        <v>340</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="H33" s="7">
         <v>84</v>
@@ -5568,13 +5556,13 @@
         <v>90758</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="M33" s="7">
         <v>127</v>
@@ -5583,13 +5571,13 @@
         <v>136303</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -5604,13 +5592,13 @@
         <v>730066</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>353</v>
+        <v>60</v>
       </c>
       <c r="H34" s="7">
         <v>660</v>
@@ -5619,13 +5607,13 @@
         <v>718736</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="M34" s="7">
         <v>1331</v>
@@ -5634,13 +5622,13 @@
         <v>1448801</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5708,13 +5696,13 @@
         <v>7216</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>225</v>
+        <v>356</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>360</v>
+        <v>224</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="H36" s="7">
         <v>31</v>
@@ -5723,13 +5711,13 @@
         <v>32967</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>179</v>
+        <v>359</v>
       </c>
       <c r="M36" s="7">
         <v>38</v>
@@ -5738,13 +5726,13 @@
         <v>40183</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>90</v>
+        <v>221</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -5759,13 +5747,13 @@
         <v>78084</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>366</v>
+        <v>72</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>235</v>
+        <v>363</v>
       </c>
       <c r="H37" s="7">
         <v>218</v>
@@ -5774,13 +5762,13 @@
         <v>230131</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>325</v>
+        <v>364</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="M37" s="7">
         <v>291</v>
@@ -5789,13 +5777,13 @@
         <v>308216</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>369</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -5810,13 +5798,13 @@
         <v>3328350</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="G38" s="7" t="s">
         <v>372</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>374</v>
       </c>
       <c r="H38" s="7">
         <v>3036</v>
@@ -5825,13 +5813,13 @@
         <v>3281700</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="L38" s="7" t="s">
         <v>375</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>377</v>
       </c>
       <c r="M38" s="7">
         <v>6153</v>
@@ -5840,13 +5828,13 @@
         <v>6610051</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="Q38" s="7" t="s">
         <v>378</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -5902,7 +5890,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -5926,7 +5914,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E69FC39D-10A9-40AD-94E9-ED286213A550}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BD3EEB7-EF51-49D4-A3EF-3351C654B92F}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5943,7 +5931,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6053,10 +6041,10 @@
         <v>12</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -6065,13 +6053,13 @@
         <v>922</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -6080,13 +6068,13 @@
         <v>922</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>384</v>
+        <v>319</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6101,13 +6089,13 @@
         <v>4717</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="H5" s="7">
         <v>7</v>
@@ -6116,13 +6104,13 @@
         <v>7942</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>322</v>
+        <v>386</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="M5" s="7">
         <v>12</v>
@@ -6131,13 +6119,13 @@
         <v>12659</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>340</v>
+        <v>388</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>304</v>
+        <v>389</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>167</v>
+        <v>302</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6155,10 +6143,10 @@
         <v>390</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>298</v>
+        <v>391</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H6" s="7">
         <v>269</v>
@@ -6167,13 +6155,13 @@
         <v>279839</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M6" s="7">
         <v>527</v>
@@ -6182,13 +6170,13 @@
         <v>564412</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>281</v>
+        <v>397</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6259,10 +6247,10 @@
         <v>12</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -6274,10 +6262,10 @@
         <v>12</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -6289,10 +6277,10 @@
         <v>12</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6310,10 +6298,10 @@
         <v>12</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H9" s="7">
         <v>3</v>
@@ -6322,13 +6310,13 @@
         <v>3138</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>397</v>
+        <v>382</v>
       </c>
       <c r="M9" s="7">
         <v>3</v>
@@ -6337,13 +6325,13 @@
         <v>3138</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>46</v>
+        <v>224</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6358,10 +6346,10 @@
         <v>500437</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>40</v>
@@ -6373,10 +6361,10 @@
         <v>519946</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>402</v>
@@ -6391,10 +6379,10 @@
         <v>403</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>404</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6450,7 +6438,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -6465,10 +6453,10 @@
         <v>12</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>229</v>
+        <v>405</v>
       </c>
       <c r="H12" s="7">
         <v>2</v>
@@ -6492,13 +6480,13 @@
         <v>1707</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>114</v>
+        <v>408</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6513,13 +6501,13 @@
         <v>996</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H13" s="7">
         <v>21</v>
@@ -6528,13 +6516,13 @@
         <v>19587</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="M13" s="7">
         <v>22</v>
@@ -6543,13 +6531,13 @@
         <v>20584</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6567,10 +6555,10 @@
         <v>403</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>305</v>
@@ -6579,7 +6567,7 @@
         <v>311174</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>416</v>
+        <v>86</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>417</v>
@@ -6597,10 +6585,10 @@
         <v>419</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>378</v>
+        <v>420</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6656,7 +6644,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6668,13 +6656,13 @@
         <v>959</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>95</v>
+        <v>422</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -6683,13 +6671,13 @@
         <v>1913</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>421</v>
+        <v>160</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
@@ -6698,13 +6686,13 @@
         <v>2872</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6719,13 +6707,13 @@
         <v>1009</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H17" s="7">
         <v>8</v>
@@ -6734,7 +6722,7 @@
         <v>7574</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>426</v>
+        <v>134</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>11</v>
@@ -6749,13 +6737,13 @@
         <v>8583</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>428</v>
+        <v>389</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>204</v>
+        <v>406</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>429</v>
+        <v>203</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6770,13 +6758,13 @@
         <v>366203</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H18" s="7">
         <v>347</v>
@@ -6785,13 +6773,13 @@
         <v>376763</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>432</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>434</v>
       </c>
       <c r="M18" s="7">
         <v>697</v>
@@ -6800,13 +6788,13 @@
         <v>742966</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6862,7 +6850,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -6877,10 +6865,10 @@
         <v>12</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>288</v>
+        <v>435</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -6892,10 +6880,10 @@
         <v>12</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -6907,10 +6895,10 @@
         <v>12</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>438</v>
+        <v>260</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6925,13 +6913,13 @@
         <v>2817</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>361</v>
+        <v>157</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>439</v>
+        <v>50</v>
       </c>
       <c r="H21" s="7">
         <v>3</v>
@@ -6940,13 +6928,13 @@
         <v>2528</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>322</v>
+        <v>230</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>440</v>
+        <v>28</v>
       </c>
       <c r="M21" s="7">
         <v>6</v>
@@ -6955,13 +6943,13 @@
         <v>5346</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>441</v>
+        <v>22</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>90</v>
+        <v>157</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6976,13 +6964,13 @@
         <v>208404</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>396</v>
+        <v>438</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="H22" s="7">
         <v>219</v>
@@ -6991,13 +6979,13 @@
         <v>215232</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>446</v>
+        <v>371</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>447</v>
+        <v>81</v>
       </c>
       <c r="M22" s="7">
         <v>428</v>
@@ -7006,13 +6994,13 @@
         <v>423635</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7068,7 +7056,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -7083,10 +7071,10 @@
         <v>12</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>450</v>
+        <v>297</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -7098,10 +7086,10 @@
         <v>12</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -7113,10 +7101,10 @@
         <v>12</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7131,13 +7119,13 @@
         <v>2902</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>338</v>
+        <v>321</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="H25" s="7">
         <v>3</v>
@@ -7146,13 +7134,13 @@
         <v>2717</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>452</v>
+        <v>225</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>140</v>
+        <v>295</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="M25" s="7">
         <v>6</v>
@@ -7161,13 +7149,13 @@
         <v>5620</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>406</v>
+        <v>262</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>365</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7182,13 +7170,13 @@
         <v>260221</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="H26" s="7">
         <v>259</v>
@@ -7197,13 +7185,13 @@
         <v>269386</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>148</v>
+        <v>451</v>
       </c>
       <c r="M26" s="7">
         <v>515</v>
@@ -7212,13 +7200,13 @@
         <v>529606</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>460</v>
+        <v>309</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7274,7 +7262,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -7289,10 +7277,10 @@
         <v>12</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="H28" s="7">
         <v>3</v>
@@ -7301,13 +7289,13 @@
         <v>2907</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>361</v>
+        <v>157</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="M28" s="7">
         <v>3</v>
@@ -7316,13 +7304,13 @@
         <v>2907</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>463</v>
+        <v>178</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7337,13 +7325,13 @@
         <v>6477</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>466</v>
+        <v>203</v>
       </c>
       <c r="H29" s="7">
         <v>16</v>
@@ -7352,13 +7340,13 @@
         <v>16737</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>305</v>
+        <v>457</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>467</v>
+        <v>317</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>370</v>
+        <v>458</v>
       </c>
       <c r="M29" s="7">
         <v>22</v>
@@ -7367,13 +7355,13 @@
         <v>23214</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>428</v>
+        <v>460</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7388,13 +7376,13 @@
         <v>645779</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>374</v>
+        <v>278</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="H30" s="7">
         <v>623</v>
@@ -7403,13 +7391,13 @@
         <v>666754</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>170</v>
+        <v>466</v>
       </c>
       <c r="M30" s="7">
         <v>1193</v>
@@ -7418,13 +7406,13 @@
         <v>1312533</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>394</v>
+        <v>469</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7480,7 +7468,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -7492,13 +7480,13 @@
         <v>1059</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>201</v>
+        <v>318</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="H32" s="7">
         <v>11</v>
@@ -7507,13 +7495,13 @@
         <v>11241</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>43</v>
+        <v>471</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>382</v>
+        <v>133</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="M32" s="7">
         <v>12</v>
@@ -7522,13 +7510,13 @@
         <v>12300</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>72</v>
+        <v>473</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>478</v>
+        <v>260</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>93</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7543,13 +7531,13 @@
         <v>10960</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>450</v>
+        <v>470</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>231</v>
+        <v>475</v>
       </c>
       <c r="H33" s="7">
         <v>45</v>
@@ -7558,13 +7546,13 @@
         <v>45843</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="M33" s="7">
         <v>56</v>
@@ -7573,13 +7561,13 @@
         <v>56803</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -7594,13 +7582,13 @@
         <v>765643</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>295</v>
+        <v>483</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="H34" s="7">
         <v>698</v>
@@ -7609,13 +7597,13 @@
         <v>768003</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>218</v>
+        <v>485</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="M34" s="7">
         <v>1435</v>
@@ -7624,13 +7612,13 @@
         <v>1533647</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>490</v>
+        <v>152</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>491</v>
+        <v>216</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7698,13 +7686,13 @@
         <v>2018</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="H36" s="7">
         <v>19</v>
@@ -7713,13 +7701,13 @@
         <v>18690</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>182</v>
+        <v>95</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>140</v>
+        <v>295</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="M36" s="7">
         <v>21</v>
@@ -7728,13 +7716,13 @@
         <v>20708</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>495</v>
+        <v>260</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7749,13 +7737,13 @@
         <v>29878</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>496</v>
+        <v>116</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>160</v>
+        <v>66</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>304</v>
+        <v>491</v>
       </c>
       <c r="H37" s="7">
         <v>106</v>
@@ -7764,13 +7752,13 @@
         <v>106067</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>284</v>
+        <v>96</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>442</v>
+        <v>457</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="M37" s="7">
         <v>136</v>
@@ -7779,13 +7767,13 @@
         <v>135945</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>205</v>
+        <v>494</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>499</v>
+        <v>475</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7800,13 +7788,13 @@
         <v>3347865</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>236</v>
+        <v>496</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>391</v>
+        <v>497</v>
       </c>
       <c r="H38" s="7">
         <v>3201</v>
@@ -7815,13 +7803,13 @@
         <v>3407095</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="M38" s="7">
         <v>6387</v>
@@ -7830,13 +7818,13 @@
         <v>6754960</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>505</v>
+        <v>291</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7892,7 +7880,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Q45B-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q45B-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{51F3F2CB-FFE8-41E7-8202-0B5FA4B89156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3276D1C6-CBC7-42E0-8692-9BB197A27CF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D79D3019-A5EA-48CF-B7D6-375CE96A8A8C}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{DDC09D47-1E3A-46CD-B4C4-4F3B1132C7A1}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="516">
   <si>
     <t>Población según si han utilizado en los últimos 5 años cabinas o lámparas de rayos ultravioletas en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -700,7 +700,58 @@
     <t>Población según si han utilizado en los últimos 5 años cabinas o lámparas de rayos ultravioletas en 2012 (Tasa respuesta: 99,62%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>88,02%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
   </si>
   <si>
     <t>0,41%</t>
@@ -811,624 +862,618 @@
     <t>97,28%</t>
   </si>
   <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>90,19%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>90,93%</t>
+  </si>
+  <si>
+    <t>88,23%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>87,81%</t>
+  </si>
+  <si>
+    <t>85,3%</t>
+  </si>
+  <si>
+    <t>90,04%</t>
+  </si>
+  <si>
+    <t>90,75%</t>
+  </si>
+  <si>
+    <t>89,03%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>Población según si han utilizado en los últimos 5 años cabinas o lámparas de rayos ultravioletas en 2016 (Tasa respuesta: 99,62%)</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
     <t>0,13%</t>
   </si>
   <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
   </si>
   <si>
     <t>97,84%</t>
   </si>
   <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>90,19%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>90,93%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>87,81%</t>
-  </si>
-  <si>
-    <t>85,3%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
-  </si>
-  <si>
-    <t>90,75%</t>
-  </si>
-  <si>
-    <t>89,03%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>Población según si han utilizado en los últimos 5 años cabinas o lámparas de rayos ultravioletas en 2016 (Tasa respuesta: 99,62%)</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
     <t>99,66%</t>
   </si>
   <si>
@@ -1444,13 +1489,7 @@
     <t>98,05%</t>
   </si>
   <si>
-    <t>97,2%</t>
-  </si>
-  <si>
     <t>98,71%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
   </si>
   <si>
     <t>1,36%</t>
@@ -1958,7 +1997,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFD6D10C-83C6-442C-B355-75BB00007BFC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05B27003-2410-4795-937B-42E251321416}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3829,7 +3868,7 @@
         <v>3151</v>
       </c>
       <c r="D38" s="7">
-        <v>3210849</v>
+        <v>3210848</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>210</v>
@@ -3844,7 +3883,7 @@
         <v>3039</v>
       </c>
       <c r="I38" s="7">
-        <v>3115266</v>
+        <v>3115265</v>
       </c>
       <c r="J38" s="7" t="s">
         <v>213</v>
@@ -3859,7 +3898,7 @@
         <v>6190</v>
       </c>
       <c r="N38" s="7">
-        <v>6326114</v>
+        <v>6326115</v>
       </c>
       <c r="O38" s="7" t="s">
         <v>173</v>
@@ -3880,7 +3919,7 @@
         <v>3214</v>
       </c>
       <c r="D39" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>40</v>
@@ -3895,7 +3934,7 @@
         <v>3297</v>
       </c>
       <c r="I39" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>40</v>
@@ -3910,7 +3949,7 @@
         <v>6511</v>
       </c>
       <c r="N39" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>40</v>
@@ -3948,7 +3987,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{378CB560-505C-4B30-B106-2BFFA829478B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{306AA2F8-999C-4453-AFEC-1AFEEF256E4F}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4068,41 +4107,47 @@
       <c r="C4" s="7">
         <v>0</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>220</v>
+        <v>12</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>220</v>
+        <v>65</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>220</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="I4" s="7">
+        <v>6193</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>220</v>
+        <v>27</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="N4" s="7">
+        <v>6193</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>220</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>220</v>
+        <v>155</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4111,43 +4156,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="D5" s="7">
+        <v>3364</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>220</v>
+        <v>67</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>15</v>
+      </c>
+      <c r="I5" s="7">
+        <v>15998</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>220</v>
+        <v>21</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>19</v>
+      </c>
+      <c r="N5" s="7">
+        <v>19362</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4156,43 +4207,49 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>278</v>
+      </c>
+      <c r="D6" s="7">
+        <v>291374</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>236</v>
+      </c>
+      <c r="I6" s="7">
+        <v>265055</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>514</v>
+      </c>
+      <c r="N6" s="7">
+        <v>556429</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4201,43 +4258,49 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7"/>
+        <v>282</v>
+      </c>
+      <c r="D7" s="7">
+        <v>294738</v>
+      </c>
       <c r="E7" s="7" t="s">
-        <v>220</v>
+        <v>40</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>220</v>
+        <v>40</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>220</v>
+        <v>40</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7"/>
+        <v>256</v>
+      </c>
+      <c r="I7" s="7">
+        <v>287245</v>
+      </c>
       <c r="J7" s="7" t="s">
-        <v>220</v>
+        <v>40</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>220</v>
+        <v>40</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>220</v>
+        <v>40</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7"/>
+        <v>538</v>
+      </c>
+      <c r="N7" s="7">
+        <v>581983</v>
+      </c>
       <c r="O7" s="7" t="s">
-        <v>220</v>
+        <v>40</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>220</v>
+        <v>40</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>220</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4260,7 +4323,7 @@
         <v>65</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="H8" s="7">
         <v>4</v>
@@ -4275,7 +4338,7 @@
         <v>135</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="M8" s="7">
         <v>4</v>
@@ -4284,13 +4347,13 @@
         <v>4072</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4311,7 +4374,7 @@
         <v>47</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="H9" s="7">
         <v>12</v>
@@ -4320,13 +4383,13 @@
         <v>12969</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>227</v>
+        <v>244</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>43</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>228</v>
+        <v>245</v>
       </c>
       <c r="M9" s="7">
         <v>19</v>
@@ -4335,13 +4398,13 @@
         <v>19630</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4359,10 +4422,10 @@
         <v>146</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="H10" s="7">
         <v>463</v>
@@ -4374,10 +4437,10 @@
         <v>56</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>234</v>
+        <v>251</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="M10" s="7">
         <v>928</v>
@@ -4386,13 +4449,13 @@
         <v>1004562</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>56</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4460,13 +4523,13 @@
         <v>952</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="H12" s="7">
         <v>3</v>
@@ -4475,13 +4538,13 @@
         <v>3014</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
       <c r="M12" s="7">
         <v>4</v>
@@ -4517,7 +4580,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="H13" s="7">
         <v>21</v>
@@ -4526,13 +4589,13 @@
         <v>20802</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="M13" s="7">
         <v>23</v>
@@ -4541,13 +4604,13 @@
         <v>22739</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>246</v>
+        <v>263</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>247</v>
+        <v>264</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>248</v>
+        <v>265</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4562,13 +4625,13 @@
         <v>320222</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>249</v>
+        <v>266</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>251</v>
+        <v>268</v>
       </c>
       <c r="H14" s="7">
         <v>292</v>
@@ -4577,13 +4640,13 @@
         <v>316244</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="M14" s="7">
         <v>607</v>
@@ -4595,10 +4658,10 @@
         <v>39</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>256</v>
+        <v>273</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4666,43 +4729,43 @@
         <v>877</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>257</v>
+        <v>180</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>258</v>
+        <v>14</v>
       </c>
       <c r="H16" s="7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I16" s="7">
-        <v>7092</v>
+        <v>899</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>260</v>
+        <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="M16" s="7">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="N16" s="7">
-        <v>7969</v>
+        <v>1776</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>71</v>
+        <v>274</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>180</v>
+        <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>14</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4711,49 +4774,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D17" s="7">
-        <v>3364</v>
+        <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>262</v>
+        <v>12</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>257</v>
+        <v>65</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>263</v>
+        <v>47</v>
       </c>
       <c r="H17" s="7">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="I17" s="7">
-        <v>29513</v>
+        <v>13516</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="M17" s="7">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="N17" s="7">
-        <v>32878</v>
+        <v>13516</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>268</v>
+        <v>113</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4762,49 +4825,49 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>619</v>
+        <v>341</v>
       </c>
       <c r="D18" s="7">
-        <v>662453</v>
+        <v>371079</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>270</v>
+        <v>281</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>272</v>
+        <v>81</v>
       </c>
       <c r="H18" s="7">
-        <v>591</v>
+        <v>355</v>
       </c>
       <c r="I18" s="7">
-        <v>638490</v>
+        <v>373435</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="M18" s="7">
-        <v>1210</v>
+        <v>696</v>
       </c>
       <c r="N18" s="7">
-        <v>1300943</v>
+        <v>744514</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4813,10 +4876,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>624</v>
+        <v>342</v>
       </c>
       <c r="D19" s="7">
-        <v>666694</v>
+        <v>371956</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -4828,10 +4891,10 @@
         <v>40</v>
       </c>
       <c r="H19" s="7">
-        <v>626</v>
+        <v>370</v>
       </c>
       <c r="I19" s="7">
-        <v>675095</v>
+        <v>387850</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -4843,10 +4906,10 @@
         <v>40</v>
       </c>
       <c r="M19" s="7">
-        <v>1250</v>
+        <v>712</v>
       </c>
       <c r="N19" s="7">
-        <v>1341789</v>
+        <v>759806</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -4872,13 +4935,13 @@
         <v>1134</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4893,7 +4956,7 @@
         <v>65</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -4902,13 +4965,13 @@
         <v>1134</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4923,13 +4986,13 @@
         <v>1146</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="H21" s="7">
         <v>6</v>
@@ -4938,13 +5001,13 @@
         <v>5745</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="M21" s="7">
         <v>7</v>
@@ -4953,13 +5016,13 @@
         <v>6892</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>258</v>
+        <v>298</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4974,10 +5037,10 @@
         <v>209192</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>81</v>
@@ -4989,13 +5052,13 @@
         <v>212902</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>291</v>
+        <v>302</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>293</v>
+        <v>304</v>
       </c>
       <c r="M22" s="7">
         <v>398</v>
@@ -5007,7 +5070,7 @@
         <v>103</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>294</v>
+        <v>305</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>125</v>
@@ -5078,7 +5141,7 @@
         <v>911</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>295</v>
+        <v>306</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>12</v>
@@ -5093,13 +5156,13 @@
         <v>5857</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>296</v>
+        <v>307</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>297</v>
+        <v>308</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>298</v>
+        <v>309</v>
       </c>
       <c r="M24" s="7">
         <v>7</v>
@@ -5108,10 +5171,10 @@
         <v>6767</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>300</v>
+        <v>311</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>19</v>
@@ -5129,13 +5192,13 @@
         <v>4894</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>301</v>
+        <v>312</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>133</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>302</v>
+        <v>313</v>
       </c>
       <c r="H25" s="7">
         <v>11</v>
@@ -5144,13 +5207,13 @@
         <v>11523</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>303</v>
+        <v>314</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>304</v>
+        <v>315</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>305</v>
+        <v>316</v>
       </c>
       <c r="M25" s="7">
         <v>16</v>
@@ -5159,13 +5222,13 @@
         <v>16418</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>306</v>
+        <v>317</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5180,13 +5243,13 @@
         <v>267101</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>310</v>
+        <v>321</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>311</v>
+        <v>322</v>
       </c>
       <c r="H26" s="7">
         <v>250</v>
@@ -5198,10 +5261,10 @@
         <v>150</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="M26" s="7">
         <v>504</v>
@@ -5210,13 +5273,13 @@
         <v>527963</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>314</v>
+        <v>325</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5305,7 +5368,7 @@
         <v>69</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="M28" s="7">
         <v>5</v>
@@ -5317,10 +5380,10 @@
         <v>15</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>318</v>
+        <v>329</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>319</v>
+        <v>330</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5335,13 +5398,13 @@
         <v>14537</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>320</v>
+        <v>331</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>321</v>
+        <v>332</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>322</v>
+        <v>333</v>
       </c>
       <c r="H29" s="7">
         <v>55</v>
@@ -5350,13 +5413,13 @@
         <v>58820</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="M29" s="7">
         <v>66</v>
@@ -5365,13 +5428,13 @@
         <v>73357</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>328</v>
+        <v>339</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5386,13 +5449,13 @@
         <v>640451</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>329</v>
+        <v>340</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="H30" s="7">
         <v>575</v>
@@ -5401,13 +5464,13 @@
         <v>628772</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>333</v>
+        <v>344</v>
       </c>
       <c r="M30" s="7">
         <v>1175</v>
@@ -5416,13 +5479,13 @@
         <v>1269223</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>336</v>
+        <v>347</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5496,7 +5559,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>337</v>
+        <v>348</v>
       </c>
       <c r="H32" s="7">
         <v>8</v>
@@ -5505,13 +5568,13 @@
         <v>9032</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>321</v>
+        <v>332</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>338</v>
+        <v>349</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="M32" s="7">
         <v>10</v>
@@ -5544,10 +5607,10 @@
         <v>117</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>340</v>
+        <v>351</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>341</v>
+        <v>352</v>
       </c>
       <c r="H33" s="7">
         <v>84</v>
@@ -5556,13 +5619,13 @@
         <v>90758</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>342</v>
+        <v>353</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>343</v>
+        <v>354</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>344</v>
+        <v>355</v>
       </c>
       <c r="M33" s="7">
         <v>127</v>
@@ -5571,13 +5634,13 @@
         <v>136303</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>345</v>
+        <v>356</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -5592,10 +5655,10 @@
         <v>730066</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>348</v>
+        <v>359</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>349</v>
+        <v>360</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>60</v>
@@ -5607,13 +5670,13 @@
         <v>718736</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>350</v>
+        <v>361</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>351</v>
+        <v>362</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="M34" s="7">
         <v>1331</v>
@@ -5622,13 +5685,13 @@
         <v>1448801</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>353</v>
+        <v>364</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>354</v>
+        <v>365</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>355</v>
+        <v>366</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5696,13 +5759,13 @@
         <v>7216</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>356</v>
+        <v>367</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>357</v>
+        <v>368</v>
       </c>
       <c r="H36" s="7">
         <v>31</v>
@@ -5714,10 +5777,10 @@
         <v>112</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>359</v>
+        <v>370</v>
       </c>
       <c r="M36" s="7">
         <v>38</v>
@@ -5726,13 +5789,13 @@
         <v>40183</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>360</v>
+        <v>371</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>361</v>
+        <v>372</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -5747,13 +5810,13 @@
         <v>78084</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>72</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="H37" s="7">
         <v>218</v>
@@ -5762,13 +5825,13 @@
         <v>230131</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>365</v>
+        <v>376</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>366</v>
+        <v>377</v>
       </c>
       <c r="M37" s="7">
         <v>291</v>
@@ -5777,13 +5840,13 @@
         <v>308216</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>368</v>
+        <v>379</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>369</v>
+        <v>380</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -5798,43 +5861,43 @@
         <v>3328350</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>370</v>
+        <v>381</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>371</v>
+        <v>382</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="H38" s="7">
         <v>3036</v>
       </c>
       <c r="I38" s="7">
-        <v>3281700</v>
+        <v>3281701</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>373</v>
+        <v>384</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>374</v>
+        <v>385</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>375</v>
+        <v>386</v>
       </c>
       <c r="M38" s="7">
         <v>6153</v>
       </c>
       <c r="N38" s="7">
-        <v>6610051</v>
+        <v>6610050</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -5861,7 +5924,7 @@
         <v>3285</v>
       </c>
       <c r="I39" s="7">
-        <v>3544798</v>
+        <v>3544799</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>40</v>
@@ -5876,7 +5939,7 @@
         <v>6482</v>
       </c>
       <c r="N39" s="7">
-        <v>6958450</v>
+        <v>6958449</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>40</v>
@@ -5914,7 +5977,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BD3EEB7-EF51-49D4-A3EF-3351C654B92F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E4566E1-1338-4880-802E-C5E6AD7FEE54}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5931,7 +5994,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6044,7 +6107,7 @@
         <v>65</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>380</v>
+        <v>391</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -6059,7 +6122,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>381</v>
+        <v>392</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -6074,7 +6137,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>319</v>
+        <v>330</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6089,13 +6152,13 @@
         <v>4717</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>382</v>
+        <v>393</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>384</v>
+        <v>395</v>
       </c>
       <c r="H5" s="7">
         <v>7</v>
@@ -6104,13 +6167,13 @@
         <v>7942</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>386</v>
+        <v>397</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>387</v>
+        <v>398</v>
       </c>
       <c r="M5" s="7">
         <v>12</v>
@@ -6119,13 +6182,13 @@
         <v>12659</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>388</v>
+        <v>399</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>389</v>
+        <v>223</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>302</v>
+        <v>313</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6140,13 +6203,13 @@
         <v>284573</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="H6" s="7">
         <v>269</v>
@@ -6155,13 +6218,13 @@
         <v>279839</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="M6" s="7">
         <v>527</v>
@@ -6170,13 +6233,13 @@
         <v>564412</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6250,7 +6313,7 @@
         <v>65</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -6265,7 +6328,7 @@
         <v>65</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -6301,7 +6364,7 @@
         <v>65</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="H9" s="7">
         <v>3</v>
@@ -6316,7 +6379,7 @@
         <v>135</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>382</v>
+        <v>393</v>
       </c>
       <c r="M9" s="7">
         <v>3</v>
@@ -6328,10 +6391,10 @@
         <v>155</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6349,7 +6412,7 @@
         <v>81</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>40</v>
@@ -6361,13 +6424,13 @@
         <v>519946</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="M10" s="7">
         <v>954</v>
@@ -6376,13 +6439,13 @@
         <v>1020383</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>57</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6456,7 +6519,7 @@
         <v>65</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="H12" s="7">
         <v>2</v>
@@ -6465,13 +6528,13 @@
         <v>1707</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="M12" s="7">
         <v>2</v>
@@ -6480,13 +6543,13 @@
         <v>1707</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6507,7 +6570,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="H13" s="7">
         <v>21</v>
@@ -6516,13 +6579,13 @@
         <v>19587</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="M13" s="7">
         <v>22</v>
@@ -6531,13 +6594,13 @@
         <v>20584</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6552,10 +6615,10 @@
         <v>316605</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>81</v>
@@ -6570,10 +6633,10 @@
         <v>86</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="M14" s="7">
         <v>638</v>
@@ -6582,13 +6645,13 @@
         <v>627779</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6656,13 +6719,13 @@
         <v>959</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -6671,7 +6734,7 @@
         <v>1913</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>262</v>
+        <v>433</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>12</v>
@@ -6689,10 +6752,10 @@
         <v>18</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>424</v>
+        <v>435</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6707,13 +6770,13 @@
         <v>1009</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>425</v>
+        <v>436</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>426</v>
+        <v>437</v>
       </c>
       <c r="H17" s="7">
         <v>8</v>
@@ -6728,7 +6791,7 @@
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>427</v>
+        <v>438</v>
       </c>
       <c r="M17" s="7">
         <v>9</v>
@@ -6737,10 +6800,10 @@
         <v>8583</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>389</v>
+        <v>223</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>203</v>
@@ -6758,10 +6821,10 @@
         <v>366203</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>428</v>
+        <v>439</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>429</v>
+        <v>440</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>81</v>
@@ -6773,13 +6836,13 @@
         <v>376763</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>432</v>
+        <v>443</v>
       </c>
       <c r="M18" s="7">
         <v>697</v>
@@ -6791,10 +6854,10 @@
         <v>212</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6868,7 +6931,7 @@
         <v>65</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>435</v>
+        <v>446</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -6883,7 +6946,7 @@
         <v>65</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>436</v>
+        <v>447</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -6898,7 +6961,7 @@
         <v>65</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>260</v>
+        <v>448</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6928,7 +6991,7 @@
         <v>2528</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>12</v>
@@ -6949,7 +7012,7 @@
         <v>157</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>437</v>
+        <v>449</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6964,13 +7027,13 @@
         <v>208404</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>438</v>
+        <v>450</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>439</v>
+        <v>451</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>440</v>
+        <v>452</v>
       </c>
       <c r="H22" s="7">
         <v>219</v>
@@ -6979,10 +7042,10 @@
         <v>215232</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>441</v>
+        <v>453</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>371</v>
+        <v>382</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>81</v>
@@ -6994,13 +7057,13 @@
         <v>423635</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>442</v>
+        <v>454</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>443</v>
+        <v>455</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>440</v>
+        <v>452</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7074,7 +7137,7 @@
         <v>65</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>297</v>
+        <v>308</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -7089,7 +7152,7 @@
         <v>65</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>380</v>
+        <v>391</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -7119,13 +7182,13 @@
         <v>2902</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>321</v>
+        <v>332</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>444</v>
+        <v>456</v>
       </c>
       <c r="H25" s="7">
         <v>3</v>
@@ -7134,13 +7197,13 @@
         <v>2717</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>295</v>
+        <v>306</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>445</v>
+        <v>457</v>
       </c>
       <c r="M25" s="7">
         <v>6</v>
@@ -7149,10 +7212,10 @@
         <v>5620</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>259</v>
+        <v>458</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>262</v>
+        <v>433</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>90</v>
@@ -7170,13 +7233,13 @@
         <v>260221</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>446</v>
+        <v>459</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>447</v>
+        <v>460</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>448</v>
+        <v>461</v>
       </c>
       <c r="H26" s="7">
         <v>259</v>
@@ -7185,13 +7248,13 @@
         <v>269386</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>449</v>
+        <v>462</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>450</v>
+        <v>463</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>451</v>
+        <v>464</v>
       </c>
       <c r="M26" s="7">
         <v>515</v>
@@ -7200,13 +7263,13 @@
         <v>529606</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>452</v>
+        <v>465</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>453</v>
+        <v>466</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7280,7 +7343,7 @@
         <v>65</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>295</v>
+        <v>306</v>
       </c>
       <c r="H28" s="7">
         <v>3</v>
@@ -7292,10 +7355,10 @@
         <v>157</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>257</v>
+        <v>467</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>454</v>
+        <v>468</v>
       </c>
       <c r="M28" s="7">
         <v>3</v>
@@ -7307,10 +7370,10 @@
         <v>178</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>455</v>
+        <v>469</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>360</v>
+        <v>371</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7325,7 +7388,7 @@
         <v>6477</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>456</v>
+        <v>470</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>93</v>
@@ -7340,13 +7403,13 @@
         <v>16737</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>457</v>
+        <v>471</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="M29" s="7">
         <v>22</v>
@@ -7355,13 +7418,13 @@
         <v>23214</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>460</v>
+        <v>474</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>461</v>
+        <v>475</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7376,13 +7439,13 @@
         <v>645779</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>278</v>
+        <v>477</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>463</v>
+        <v>478</v>
       </c>
       <c r="H30" s="7">
         <v>623</v>
@@ -7391,13 +7454,13 @@
         <v>666754</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>464</v>
+        <v>479</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>465</v>
+        <v>480</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>466</v>
+        <v>481</v>
       </c>
       <c r="M30" s="7">
         <v>1193</v>
@@ -7406,13 +7469,13 @@
         <v>1312533</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>467</v>
+        <v>482</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>468</v>
+        <v>231</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>469</v>
+        <v>483</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7480,13 +7543,13 @@
         <v>1059</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>318</v>
+        <v>329</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>470</v>
+        <v>221</v>
       </c>
       <c r="H32" s="7">
         <v>11</v>
@@ -7495,13 +7558,13 @@
         <v>11241</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>471</v>
+        <v>484</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>133</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>472</v>
+        <v>485</v>
       </c>
       <c r="M32" s="7">
         <v>12</v>
@@ -7510,10 +7573,10 @@
         <v>12300</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>473</v>
+        <v>486</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>260</v>
+        <v>448</v>
       </c>
       <c r="Q32" s="7" t="s">
         <v>42</v>
@@ -7531,13 +7594,13 @@
         <v>10960</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>474</v>
+        <v>487</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>470</v>
+        <v>221</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>475</v>
+        <v>488</v>
       </c>
       <c r="H33" s="7">
         <v>45</v>
@@ -7546,13 +7609,13 @@
         <v>45843</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>476</v>
+        <v>489</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>477</v>
+        <v>490</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>478</v>
+        <v>491</v>
       </c>
       <c r="M33" s="7">
         <v>56</v>
@@ -7561,13 +7624,13 @@
         <v>56803</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>479</v>
+        <v>492</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>480</v>
+        <v>493</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>481</v>
+        <v>494</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -7582,13 +7645,13 @@
         <v>765643</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>482</v>
+        <v>495</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>483</v>
+        <v>496</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>484</v>
+        <v>497</v>
       </c>
       <c r="H34" s="7">
         <v>698</v>
@@ -7597,13 +7660,13 @@
         <v>768003</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>485</v>
+        <v>498</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>486</v>
+        <v>499</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="M34" s="7">
         <v>1435</v>
@@ -7618,7 +7681,7 @@
         <v>216</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>488</v>
+        <v>501</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7686,7 +7749,7 @@
         <v>2018</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>489</v>
+        <v>502</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>12</v>
@@ -7704,10 +7767,10 @@
         <v>95</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>295</v>
+        <v>306</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>490</v>
+        <v>503</v>
       </c>
       <c r="M36" s="7">
         <v>21</v>
@@ -7722,7 +7785,7 @@
         <v>135</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>260</v>
+        <v>448</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7743,7 +7806,7 @@
         <v>66</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>491</v>
+        <v>504</v>
       </c>
       <c r="H37" s="7">
         <v>106</v>
@@ -7755,10 +7818,10 @@
         <v>96</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>457</v>
+        <v>471</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>492</v>
+        <v>505</v>
       </c>
       <c r="M37" s="7">
         <v>136</v>
@@ -7767,13 +7830,13 @@
         <v>135945</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>493</v>
+        <v>506</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>494</v>
+        <v>507</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>475</v>
+        <v>488</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7788,13 +7851,13 @@
         <v>3347865</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>495</v>
+        <v>508</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>496</v>
+        <v>509</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>497</v>
+        <v>510</v>
       </c>
       <c r="H38" s="7">
         <v>3201</v>
@@ -7803,13 +7866,13 @@
         <v>3407095</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>498</v>
+        <v>511</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>499</v>
+        <v>512</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>500</v>
+        <v>513</v>
       </c>
       <c r="M38" s="7">
         <v>6387</v>
@@ -7818,13 +7881,13 @@
         <v>6754960</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>501</v>
+        <v>514</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>291</v>
+        <v>302</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>502</v>
+        <v>515</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
